--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>mysql_install.sh</t>
-  </si>
-  <si>
-    <t>安装MySQL5.6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>-v1.1</t>
@@ -689,6 +685,34 @@
   </si>
   <si>
     <t>del_file.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql5.7.10_install.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql5_7_install.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装MySQL5.6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装MySQL5.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要安装4个mysql相关的软件common libs client server</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -904,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -949,14 +973,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,9 +1010,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1184,6 +1199,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1226,10 +1262,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,88 +1292,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1328,14 +1373,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1665,13 +1710,13 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
@@ -1680,384 +1725,391 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="80" t="s">
-        <v>123</v>
+      <c r="D1" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="81" t="s">
-        <v>9</v>
+      <c r="C2" s="78" t="s">
+        <v>8</v>
       </c>
       <c r="D2" s="11">
         <v>42620</v>
       </c>
-      <c r="E2" s="77"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
-      <c r="B3" s="73" t="s">
+      <c r="A3" s="108"/>
+      <c r="B3" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="69" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="12">
         <v>42620</v>
       </c>
-      <c r="E3" s="77"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="104"/>
-      <c r="B4" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="72" t="s">
-        <v>17</v>
+      <c r="A4" s="108"/>
+      <c r="B4" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="12">
         <v>42584</v>
       </c>
-      <c r="E4" s="77"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="108"/>
+      <c r="B5" s="70" t="s">
         <v>21</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="12">
         <v>42605</v>
       </c>
-      <c r="E5" s="77"/>
+      <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="104"/>
-      <c r="B6" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>52</v>
+      <c r="A6" s="108"/>
+      <c r="B6" s="70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>51</v>
       </c>
       <c r="D6" s="12">
         <v>42643</v>
       </c>
-      <c r="E6" s="77"/>
+      <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="104"/>
-      <c r="B7" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>55</v>
+      <c r="A7" s="108"/>
+      <c r="B7" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="12">
         <v>42656</v>
       </c>
-      <c r="E7" s="77"/>
+      <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="104"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>70</v>
-      </c>
-      <c r="C8" s="72" t="s">
-        <v>71</v>
       </c>
       <c r="D8" s="12">
         <v>42670</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="104"/>
-      <c r="B9" s="93" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D9" s="12">
         <v>42706</v>
       </c>
-      <c r="E9" s="77"/>
+      <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
-      <c r="B10" s="96" t="s">
-        <v>169</v>
+      <c r="A10" s="109"/>
+      <c r="B10" s="93" t="s">
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="12">
         <v>42720</v>
       </c>
-      <c r="E10" s="77"/>
+      <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
-      <c r="B11" s="93"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="77"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="12">
+        <v>42745</v>
+      </c>
+      <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="72"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="77"/>
+      <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>17</v>
+      <c r="B13" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="13">
         <v>42621</v>
       </c>
-      <c r="E13" s="76"/>
+      <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="72" t="s">
-        <v>21</v>
+      <c r="A14" s="111"/>
+      <c r="B14" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="12">
         <v>42572</v>
       </c>
-      <c r="E14" s="77"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>21</v>
+      <c r="A15" s="111"/>
+      <c r="B15" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="12">
         <v>42611</v>
       </c>
-      <c r="E15" s="77"/>
+      <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="70" t="s">
+      <c r="A16" s="111"/>
+      <c r="B16" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="69" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="12">
         <v>42636</v>
       </c>
-      <c r="E16" s="77"/>
+      <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="70" t="s">
+      <c r="A17" s="111"/>
+      <c r="B17" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="12">
         <v>42661</v>
       </c>
-      <c r="E17" s="77"/>
+      <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="107"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="72"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="77"/>
+      <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="107"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="72"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="77"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="107"/>
+      <c r="A20" s="111"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="72"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="77"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
+      <c r="A21" s="111"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="72"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="77"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="83" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="D22" s="65">
+      <c r="D22" s="62">
         <v>42668</v>
       </c>
-      <c r="E22" s="101" t="s">
+      <c r="E22" s="105" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
+      <c r="B23" s="81" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="84" t="s">
+      <c r="C23" s="69" t="s">
         <v>125</v>
-      </c>
-      <c r="C23" s="72" t="s">
-        <v>126</v>
       </c>
       <c r="D23" s="11">
         <v>42669</v>
       </c>
-      <c r="E23" s="102"/>
+      <c r="E23" s="106"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="107"/>
-      <c r="B24" s="84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>129</v>
+      <c r="A24" s="111"/>
+      <c r="B24" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="69" t="s">
+        <v>128</v>
       </c>
       <c r="D24" s="11">
         <v>42669</v>
       </c>
-      <c r="E24" s="102"/>
+      <c r="E24" s="106"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="107"/>
-      <c r="B25" s="84" t="s">
+      <c r="A25" s="111"/>
+      <c r="B25" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>128</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>129</v>
       </c>
       <c r="D25" s="11">
         <v>42671</v>
       </c>
-      <c r="E25" s="102"/>
+      <c r="E25" s="106"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
-      <c r="B26" s="84" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="72" t="s">
-        <v>122</v>
+      <c r="A26" s="111"/>
+      <c r="B26" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="69" t="s">
+        <v>121</v>
       </c>
       <c r="D26" s="11">
         <v>42671</v>
       </c>
-      <c r="E26" s="102"/>
+      <c r="E26" s="106"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="107"/>
-      <c r="B27" s="84" t="s">
+      <c r="A27" s="111"/>
+      <c r="B27" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>131</v>
-      </c>
-      <c r="C27" s="72" t="s">
-        <v>132</v>
       </c>
       <c r="D27" s="11">
         <v>42672</v>
       </c>
-      <c r="E27" s="102"/>
+      <c r="E27" s="106"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="107"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="111"/>
+      <c r="B28" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>147</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>148</v>
       </c>
       <c r="D28" s="11">
         <v>42675</v>
       </c>
-      <c r="E28" s="102"/>
+      <c r="E28" s="106"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="107"/>
-      <c r="B29" s="84" t="s">
+      <c r="A29" s="111"/>
+      <c r="B29" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>150</v>
-      </c>
-      <c r="C29" s="85" t="s">
-        <v>151</v>
       </c>
       <c r="D29" s="11">
         <v>42674</v>
       </c>
-      <c r="E29" s="102"/>
+      <c r="E29" s="106"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="107"/>
-      <c r="B30" s="84" t="s">
+      <c r="A30" s="111"/>
+      <c r="B30" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="106"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="102"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="107"/>
-      <c r="B31" s="84" t="s">
+      <c r="C31" s="82" t="s">
         <v>155</v>
-      </c>
-      <c r="C31" s="85" t="s">
-        <v>156</v>
       </c>
       <c r="D31" s="11">
         <v>42676</v>
       </c>
-      <c r="E31" s="102"/>
+      <c r="E31" s="106"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="103"/>
+      <c r="A32" s="112"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2091,494 +2143,494 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="112" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="56">
+        <v>42569</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="19"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="114"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="59">
-        <v>42569</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="58" t="s">
+      <c r="D3" s="57">
+        <v>42570</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="60">
-        <v>42570</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="110"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="58" t="s">
-        <v>17</v>
+      <c r="A4" s="114"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="55" t="s">
+        <v>16</v>
       </c>
       <c r="D4" s="11">
         <v>42621</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="E4" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="21"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="110"/>
-      <c r="B6" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="65">
+      <c r="A6" s="114"/>
+      <c r="B6" s="116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="62">
         <v>42572</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="110"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="110"/>
-      <c r="B8" s="112" t="s">
+      <c r="A8" s="114"/>
+      <c r="B8" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="62">
+        <v>42611</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="65">
-        <v>42611</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="110"/>
-      <c r="B10" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="65">
+      <c r="A10" s="114"/>
+      <c r="B10" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="62">
         <v>42636</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="110"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="110"/>
-      <c r="B12" s="112" t="s">
+      <c r="A12" s="114"/>
+      <c r="B12" s="116" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="D12" s="62">
+        <v>42661</v>
+      </c>
+      <c r="E12" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="65">
-        <v>42661</v>
-      </c>
-      <c r="E12" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
+      <c r="F12" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="110"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="110"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="114"/>
+      <c r="B14" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="D14" s="62">
+        <v>42668</v>
+      </c>
+      <c r="E14" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="65">
-        <v>42668</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="110"/>
-      <c r="B15" s="70" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="72" t="s">
-        <v>126</v>
+      <c r="A15" s="114"/>
+      <c r="B15" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="69" t="s">
+        <v>125</v>
       </c>
       <c r="D15" s="11">
         <v>42669</v>
       </c>
-      <c r="E15" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="75"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="E15" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="110"/>
-      <c r="B16" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="72" t="s">
-        <v>129</v>
+      <c r="A16" s="114"/>
+      <c r="B16" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="69" t="s">
+        <v>128</v>
       </c>
       <c r="D16" s="11">
         <v>42669</v>
       </c>
-      <c r="E16" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="E16" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="110"/>
-      <c r="B17" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="72" t="s">
-        <v>129</v>
+      <c r="A17" s="114"/>
+      <c r="B17" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="69" t="s">
+        <v>128</v>
       </c>
       <c r="D17" s="11">
         <v>42671</v>
       </c>
-      <c r="E17" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="E17" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
-      <c r="B18" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>122</v>
+      <c r="A18" s="114"/>
+      <c r="B18" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="69" t="s">
+        <v>121</v>
       </c>
       <c r="D18" s="11">
         <v>42671</v>
       </c>
-      <c r="E18" s="74" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>144</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="E18" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
-      <c r="B19" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="C19" s="72" t="s">
-        <v>132</v>
+      <c r="A19" s="114"/>
+      <c r="B19" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>131</v>
       </c>
       <c r="D19" s="11">
         <v>42672</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="E19" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
-      <c r="B20" s="84" t="s">
+      <c r="A20" s="114"/>
+      <c r="B20" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="82" t="s">
         <v>147</v>
-      </c>
-      <c r="C20" s="85" t="s">
-        <v>148</v>
       </c>
       <c r="D20" s="11">
         <v>42675</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="E20" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="84" t="s">
+      <c r="A21" s="114"/>
+      <c r="B21" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="82" t="s">
         <v>150</v>
-      </c>
-      <c r="C21" s="85" t="s">
-        <v>151</v>
       </c>
       <c r="D21" s="11">
         <v>42674</v>
       </c>
-      <c r="E21" s="86" t="s">
-        <v>149</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="E21" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="110"/>
-      <c r="B22" s="84" t="s">
+      <c r="A22" s="114"/>
+      <c r="B22" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C22" s="85" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="83" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="84"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="114"/>
+      <c r="B23" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="110"/>
-      <c r="B23" s="89" t="s">
+      <c r="C23" s="87" t="s">
         <v>155</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>156</v>
       </c>
       <c r="D23" s="11">
         <v>42676</v>
       </c>
-      <c r="E23" s="86" t="s">
-        <v>157</v>
-      </c>
-      <c r="F23" s="87"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="E23" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="84"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="110"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2600,10 +2652,10 @@
   <sheetPr>
     <tabColor rgb="FF0FAAAF"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2616,417 +2668,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="126" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="120" t="s">
-        <v>30</v>
+      <c r="C2" s="129" t="s">
+        <v>29</v>
       </c>
       <c r="D2" s="124">
         <v>42486</v>
       </c>
-      <c r="E2" s="112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="E2" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="126"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="121"/>
+      <c r="B3" s="123"/>
+      <c r="C3" s="130"/>
       <c r="D3" s="125"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="126"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="9" t="s">
-        <v>9</v>
+      <c r="B4" s="123"/>
+      <c r="C4" s="102" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="11">
         <v>42620</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="E4" s="99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="126"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="126"/>
-      <c r="B6" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="33">
-        <v>42569</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="B6" s="121" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="101" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="103">
+        <v>42745</v>
+      </c>
+      <c r="E6" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="158" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="32">
-        <v>42570</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="126"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="11">
-        <v>42620</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="157"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="126"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
+      <c r="B9" s="123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="102" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="104">
+        <v>42569</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="126"/>
-      <c r="B10" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="40">
-        <v>42578</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="30">
+        <v>42570</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="126"/>
-      <c r="B11" s="119"/>
+      <c r="B11" s="123"/>
       <c r="C11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="42">
-        <v>42580</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="11">
+        <v>42620</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="126"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="12">
-        <v>42584</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B12" s="122"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="126"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="B13" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="37">
+        <v>42578</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="126"/>
-      <c r="B14" s="115" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="13">
-        <v>42605</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="B14" s="123"/>
+      <c r="C14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="39">
+        <v>42580</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="126"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="4"/>
+      <c r="B15" s="123"/>
+      <c r="C15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="12">
+        <v>42584</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="126"/>
-      <c r="B16" s="115" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="13">
-        <v>42643</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>51</v>
-      </c>
+      <c r="B16" s="122"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="126"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="38"/>
+      <c r="B17" s="121" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="13">
+        <v>42605</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="126"/>
-      <c r="B18" s="115" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="13">
-        <v>42654</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>73</v>
-      </c>
+      <c r="B18" s="122"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="126"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="12">
-        <v>42656</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
+      <c r="B19" s="121" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13">
+        <v>42643</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="126"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="38"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="126"/>
-      <c r="B21" s="115" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="52">
-        <v>42670</v>
+      <c r="B21" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="13">
+        <v>42654</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="126"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="38"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="12">
+        <v>42656</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="126"/>
-      <c r="B23" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="95">
-        <v>42706</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="F23" s="61" t="s">
-        <v>163</v>
-      </c>
+      <c r="B23" s="122"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="126"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="38"/>
+      <c r="B24" s="121" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="49">
+        <v>42670</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="126"/>
-      <c r="B25" s="122" t="s">
-        <v>168</v>
-      </c>
-      <c r="C25" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="98">
-        <v>42720</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="61" t="s">
-        <v>167</v>
-      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="126"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="100"/>
+      <c r="B26" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="92">
+        <v>42706</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="126"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="126"/>
+      <c r="B28" s="119" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="95">
+        <v>42720</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="126"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A26"/>
-    <mergeCell ref="B25:B26"/>
+  <mergeCells count="15">
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A29"/>
+    <mergeCell ref="B28:B29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3048,78 +3147,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="150"/>
+      <c r="C1" s="143" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="133" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="M1" s="138"/>
-      <c r="N1" s="139"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="145"/>
+      <c r="N1" s="146"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="133"/>
+      <c r="C2" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="134" t="s">
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="131" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="132"/>
+      <c r="N2" s="133"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="149"/>
+      <c r="C3" s="147" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
+      <c r="I3" s="148"/>
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="147" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="132"/>
-      <c r="N2" s="129"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="130" t="s">
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="140"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="140"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="130" t="s">
-        <v>120</v>
-      </c>
-      <c r="M3" s="140"/>
-      <c r="N3" s="131"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="128" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="129"/>
-      <c r="C4" s="128" t="s">
-        <v>107</v>
+      <c r="B4" s="133"/>
+      <c r="C4" s="131" t="s">
+        <v>106</v>
       </c>
       <c r="D4" s="132"/>
       <c r="E4" s="132"/>
@@ -3128,20 +3227,20 @@
       <c r="H4" s="132"/>
       <c r="I4" s="132"/>
       <c r="J4" s="132"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="128" t="s">
-        <v>106</v>
+      <c r="K4" s="133"/>
+      <c r="L4" s="131" t="s">
+        <v>105</v>
       </c>
       <c r="M4" s="132"/>
-      <c r="N4" s="129"/>
+      <c r="N4" s="133"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="133"/>
+      <c r="C5" s="131" t="s">
         <v>108</v>
-      </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="128" t="s">
-        <v>109</v>
       </c>
       <c r="D5" s="132"/>
       <c r="E5" s="132"/>
@@ -3150,20 +3249,20 @@
       <c r="H5" s="132"/>
       <c r="I5" s="132"/>
       <c r="J5" s="132"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="128" t="s">
-        <v>106</v>
+      <c r="K5" s="133"/>
+      <c r="L5" s="131" t="s">
+        <v>105</v>
       </c>
       <c r="M5" s="132"/>
-      <c r="N5" s="129"/>
+      <c r="N5" s="133"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="131" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="133"/>
+      <c r="C6" s="131" t="s">
         <v>110</v>
-      </c>
-      <c r="B6" s="129"/>
-      <c r="C6" s="128" t="s">
-        <v>111</v>
       </c>
       <c r="D6" s="132"/>
       <c r="E6" s="132"/>
@@ -3172,20 +3271,20 @@
       <c r="H6" s="132"/>
       <c r="I6" s="132"/>
       <c r="J6" s="132"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="128" t="s">
-        <v>106</v>
+      <c r="K6" s="133"/>
+      <c r="L6" s="131" t="s">
+        <v>105</v>
       </c>
       <c r="M6" s="132"/>
-      <c r="N6" s="129"/>
+      <c r="N6" s="133"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="131" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="131" t="s">
         <v>79</v>
-      </c>
-      <c r="B7" s="129"/>
-      <c r="C7" s="128" t="s">
-        <v>80</v>
       </c>
       <c r="D7" s="132"/>
       <c r="E7" s="132"/>
@@ -3194,20 +3293,20 @@
       <c r="H7" s="132"/>
       <c r="I7" s="132"/>
       <c r="J7" s="132"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="128" t="s">
-        <v>99</v>
+      <c r="K7" s="133"/>
+      <c r="L7" s="131" t="s">
+        <v>98</v>
       </c>
       <c r="M7" s="132"/>
-      <c r="N7" s="129"/>
+      <c r="N7" s="133"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="128" t="s">
+      <c r="A8" s="131" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="133"/>
+      <c r="C8" s="131" t="s">
         <v>81</v>
-      </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="128" t="s">
-        <v>82</v>
       </c>
       <c r="D8" s="132"/>
       <c r="E8" s="132"/>
@@ -3216,20 +3315,20 @@
       <c r="H8" s="132"/>
       <c r="I8" s="132"/>
       <c r="J8" s="132"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="128" t="s">
-        <v>99</v>
+      <c r="K8" s="133"/>
+      <c r="L8" s="131" t="s">
+        <v>98</v>
       </c>
       <c r="M8" s="132"/>
-      <c r="N8" s="129"/>
+      <c r="N8" s="133"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
+      <c r="A9" s="131" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="133"/>
+      <c r="C9" s="131" t="s">
         <v>83</v>
-      </c>
-      <c r="B9" s="129"/>
-      <c r="C9" s="128" t="s">
-        <v>84</v>
       </c>
       <c r="D9" s="132"/>
       <c r="E9" s="132"/>
@@ -3238,20 +3337,20 @@
       <c r="H9" s="132"/>
       <c r="I9" s="132"/>
       <c r="J9" s="132"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="128" t="s">
-        <v>99</v>
+      <c r="K9" s="133"/>
+      <c r="L9" s="131" t="s">
+        <v>98</v>
       </c>
       <c r="M9" s="132"/>
-      <c r="N9" s="129"/>
+      <c r="N9" s="133"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="128" t="s">
+      <c r="A10" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="131" t="s">
         <v>86</v>
-      </c>
-      <c r="B10" s="129"/>
-      <c r="C10" s="128" t="s">
-        <v>87</v>
       </c>
       <c r="D10" s="132"/>
       <c r="E10" s="132"/>
@@ -3260,20 +3359,20 @@
       <c r="H10" s="132"/>
       <c r="I10" s="132"/>
       <c r="J10" s="132"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="128" t="s">
-        <v>96</v>
+      <c r="K10" s="133"/>
+      <c r="L10" s="131" t="s">
+        <v>95</v>
       </c>
       <c r="M10" s="132"/>
-      <c r="N10" s="129"/>
+      <c r="N10" s="133"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="131" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="133"/>
+      <c r="C11" s="131" t="s">
         <v>88</v>
-      </c>
-      <c r="B11" s="129"/>
-      <c r="C11" s="128" t="s">
-        <v>89</v>
       </c>
       <c r="D11" s="132"/>
       <c r="E11" s="132"/>
@@ -3282,20 +3381,20 @@
       <c r="H11" s="132"/>
       <c r="I11" s="132"/>
       <c r="J11" s="132"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="128" t="s">
+      <c r="K11" s="133"/>
+      <c r="L11" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="132"/>
+      <c r="N11" s="133"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="129"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="128" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="131" t="s">
         <v>92</v>
-      </c>
-      <c r="B12" s="129"/>
-      <c r="C12" s="128" t="s">
-        <v>93</v>
       </c>
       <c r="D12" s="132"/>
       <c r="E12" s="132"/>
@@ -3304,20 +3403,20 @@
       <c r="H12" s="132"/>
       <c r="I12" s="132"/>
       <c r="J12" s="132"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="128" t="s">
-        <v>90</v>
+      <c r="K12" s="133"/>
+      <c r="L12" s="131" t="s">
+        <v>89</v>
       </c>
       <c r="M12" s="132"/>
-      <c r="N12" s="129"/>
+      <c r="N12" s="133"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="128" t="s">
+      <c r="A13" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="133"/>
+      <c r="C13" s="131" t="s">
         <v>94</v>
-      </c>
-      <c r="B13" s="129"/>
-      <c r="C13" s="128" t="s">
-        <v>95</v>
       </c>
       <c r="D13" s="132"/>
       <c r="E13" s="132"/>
@@ -3326,20 +3425,20 @@
       <c r="H13" s="132"/>
       <c r="I13" s="132"/>
       <c r="J13" s="132"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="128" t="s">
-        <v>90</v>
+      <c r="K13" s="133"/>
+      <c r="L13" s="131" t="s">
+        <v>89</v>
       </c>
       <c r="M13" s="132"/>
-      <c r="N13" s="129"/>
+      <c r="N13" s="133"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="129"/>
-      <c r="C14" s="128" t="s">
-        <v>100</v>
+      <c r="A14" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="133"/>
+      <c r="C14" s="131" t="s">
+        <v>99</v>
       </c>
       <c r="D14" s="132"/>
       <c r="E14" s="132"/>
@@ -3348,20 +3447,20 @@
       <c r="H14" s="132"/>
       <c r="I14" s="132"/>
       <c r="J14" s="132"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="128" t="s">
-        <v>98</v>
+      <c r="K14" s="133"/>
+      <c r="L14" s="131" t="s">
+        <v>97</v>
       </c>
       <c r="M14" s="132"/>
-      <c r="N14" s="129"/>
+      <c r="N14" s="133"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="133"/>
+      <c r="C15" s="131" t="s">
         <v>101</v>
-      </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="128" t="s">
-        <v>102</v>
       </c>
       <c r="D15" s="132"/>
       <c r="E15" s="132"/>
@@ -3370,20 +3469,20 @@
       <c r="H15" s="132"/>
       <c r="I15" s="132"/>
       <c r="J15" s="132"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="128" t="s">
+      <c r="K15" s="133"/>
+      <c r="L15" s="131" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="132"/>
+      <c r="N15" s="133"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="132"/>
-      <c r="N15" s="129"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="128" t="s">
+      <c r="B16" s="133"/>
+      <c r="C16" s="131" t="s">
         <v>113</v>
-      </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="128" t="s">
-        <v>114</v>
       </c>
       <c r="D16" s="132"/>
       <c r="E16" s="132"/>
@@ -3392,55 +3491,55 @@
       <c r="H16" s="132"/>
       <c r="I16" s="132"/>
       <c r="J16" s="132"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="128" t="s">
-        <v>112</v>
+      <c r="K16" s="133"/>
+      <c r="L16" s="131" t="s">
+        <v>111</v>
       </c>
       <c r="M16" s="132"/>
-      <c r="N16" s="129"/>
+      <c r="N16" s="133"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="128" t="s">
+      <c r="A17" s="131" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="133"/>
+      <c r="C17" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="134" t="s">
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="143" t="s">
-        <v>117</v>
-      </c>
       <c r="M17" s="132"/>
-      <c r="N17" s="129"/>
+      <c r="N17" s="133"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="128"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="128"/>
+      <c r="A18" s="131"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="131"/>
       <c r="M18" s="132"/>
-      <c r="N18" s="129"/>
+      <c r="N18" s="133"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="128"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="128"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="131"/>
       <c r="D19" s="132"/>
       <c r="E19" s="132"/>
       <c r="F19" s="132"/>
@@ -3448,15 +3547,15 @@
       <c r="H19" s="132"/>
       <c r="I19" s="132"/>
       <c r="J19" s="132"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="128"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="131"/>
       <c r="M19" s="132"/>
-      <c r="N19" s="129"/>
+      <c r="N19" s="133"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="128"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="131"/>
       <c r="D20" s="132"/>
       <c r="E20" s="132"/>
       <c r="F20" s="132"/>
@@ -3464,15 +3563,15 @@
       <c r="H20" s="132"/>
       <c r="I20" s="132"/>
       <c r="J20" s="132"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="128"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="131"/>
       <c r="M20" s="132"/>
-      <c r="N20" s="129"/>
+      <c r="N20" s="133"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="128"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="131"/>
       <c r="D21" s="132"/>
       <c r="E21" s="132"/>
       <c r="F21" s="132"/>
@@ -3480,15 +3579,15 @@
       <c r="H21" s="132"/>
       <c r="I21" s="132"/>
       <c r="J21" s="132"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="128"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="131"/>
       <c r="M21" s="132"/>
-      <c r="N21" s="129"/>
+      <c r="N21" s="133"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="128"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="128"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="132"/>
       <c r="E22" s="132"/>
       <c r="F22" s="132"/>
@@ -3496,15 +3595,15 @@
       <c r="H22" s="132"/>
       <c r="I22" s="132"/>
       <c r="J22" s="132"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="128"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="131"/>
       <c r="M22" s="132"/>
-      <c r="N22" s="129"/>
+      <c r="N22" s="133"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="128"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="128"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="131"/>
       <c r="D23" s="132"/>
       <c r="E23" s="132"/>
       <c r="F23" s="132"/>
@@ -3512,15 +3611,15 @@
       <c r="H23" s="132"/>
       <c r="I23" s="132"/>
       <c r="J23" s="132"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="128"/>
+      <c r="K23" s="133"/>
+      <c r="L23" s="131"/>
       <c r="M23" s="132"/>
-      <c r="N23" s="129"/>
+      <c r="N23" s="133"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="128"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="128"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="131"/>
       <c r="D24" s="132"/>
       <c r="E24" s="132"/>
       <c r="F24" s="132"/>
@@ -3528,15 +3627,15 @@
       <c r="H24" s="132"/>
       <c r="I24" s="132"/>
       <c r="J24" s="132"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="128"/>
+      <c r="K24" s="133"/>
+      <c r="L24" s="131"/>
       <c r="M24" s="132"/>
-      <c r="N24" s="129"/>
+      <c r="N24" s="133"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="128"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="128"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="133"/>
+      <c r="C25" s="131"/>
       <c r="D25" s="132"/>
       <c r="E25" s="132"/>
       <c r="F25" s="132"/>
@@ -3544,15 +3643,15 @@
       <c r="H25" s="132"/>
       <c r="I25" s="132"/>
       <c r="J25" s="132"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="128"/>
+      <c r="K25" s="133"/>
+      <c r="L25" s="131"/>
       <c r="M25" s="132"/>
-      <c r="N25" s="129"/>
+      <c r="N25" s="133"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="128"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="128"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="131"/>
       <c r="D26" s="132"/>
       <c r="E26" s="132"/>
       <c r="F26" s="132"/>
@@ -3560,29 +3659,94 @@
       <c r="H26" s="132"/>
       <c r="I26" s="132"/>
       <c r="J26" s="132"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="128"/>
+      <c r="K26" s="133"/>
+      <c r="L26" s="131"/>
       <c r="M26" s="132"/>
-      <c r="N26" s="129"/>
+      <c r="N26" s="133"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="144"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="146"/>
-      <c r="N27" s="145"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="134"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
@@ -3599,71 +3763,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3684,147 +3783,147 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="46"/>
+    <col min="1" max="1" width="9" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="151"/>
+      <c r="D1" s="154" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="154"/>
+      <c r="H1" s="154"/>
+      <c r="I1" s="154"/>
+      <c r="J1" s="155"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="151" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="147" t="s">
+      <c r="B2" s="152">
+        <v>42620</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="132" t="s">
         <v>44</v>
-      </c>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="148"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="149">
-        <v>42620</v>
-      </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="132" t="s">
-        <v>45</v>
       </c>
       <c r="E2" s="132"/>
       <c r="F2" s="132"/>
       <c r="G2" s="132"/>
       <c r="H2" s="132"/>
       <c r="I2" s="132"/>
-      <c r="J2" s="129"/>
+      <c r="J2" s="133"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="149">
+      <c r="A3" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="152">
         <v>42626</v>
       </c>
-      <c r="C3" s="149"/>
+      <c r="C3" s="152"/>
       <c r="D3" s="132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="132"/>
       <c r="F3" s="132"/>
       <c r="G3" s="132"/>
       <c r="H3" s="132"/>
       <c r="I3" s="132"/>
-      <c r="J3" s="129"/>
+      <c r="J3" s="133"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="152">
+        <v>42674</v>
+      </c>
+      <c r="C4" s="152"/>
+      <c r="D4" s="132" t="s">
         <v>75</v>
-      </c>
-      <c r="B4" s="149">
-        <v>42674</v>
-      </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="132" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="132"/>
       <c r="F4" s="132"/>
       <c r="G4" s="132"/>
       <c r="H4" s="132"/>
       <c r="I4" s="132"/>
-      <c r="J4" s="129"/>
+      <c r="J4" s="133"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="132"/>
       <c r="E5" s="132"/>
       <c r="F5" s="132"/>
       <c r="G5" s="132"/>
       <c r="H5" s="132"/>
       <c r="I5" s="132"/>
-      <c r="J5" s="129"/>
+      <c r="J5" s="133"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
       <c r="D6" s="132"/>
       <c r="E6" s="132"/>
       <c r="F6" s="132"/>
       <c r="G6" s="132"/>
       <c r="H6" s="132"/>
       <c r="I6" s="132"/>
-      <c r="J6" s="129"/>
+      <c r="J6" s="133"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
       <c r="D7" s="132"/>
       <c r="E7" s="132"/>
       <c r="F7" s="132"/>
       <c r="G7" s="132"/>
       <c r="H7" s="132"/>
       <c r="I7" s="132"/>
-      <c r="J7" s="129"/>
+      <c r="J7" s="133"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="145"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,11 +644,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>tosc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tosc</t>
+    <t>开发环境部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属有8个调用脚本 adduser_1.sh mysql_2.sh python_3.sh pip_4.sh mysqlin_5.sh mkdir_6.sh nginx_7.sh supervisor_8.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -656,39 +664,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发环境部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附属有8个调用脚本 adduser_1.sh mysql_2.sh python_3.sh pip_4.sh mysqlin_5.sh mkdir_6.sh nginx_7.sh supervisor_8.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>删除指定日期前的文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只删除目标目录下的文件，子目录里的文件不会删掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_file.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>del_file.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>删除指定日期前的文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只删除目标目录下的文件，子目录里的文件不会删掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_file.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>del_file.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql5.7.10_install.sh</t>
+    <t>mysql5_7_install.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -696,23 +696,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>安装MySQL5.6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装MySQL5.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要安装4个mysql相关的软件common libs client server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mysql5_7_install.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装MySQL5.6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装MySQL5.7.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要安装4个mysql相关的软件common libs client server</t>
+    <t>-v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql版本为5.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,6 +1228,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,15 +1259,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1373,13 +1390,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1710,8 +1727,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1756,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="114" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -1754,7 +1771,7 @@
       <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
@@ -1767,7 +1784,7 @@
       <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="108"/>
+      <c r="A4" s="114"/>
       <c r="B4" s="70" t="s">
         <v>14</v>
       </c>
@@ -1780,7 +1797,7 @@
       <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="108"/>
+      <c r="A5" s="114"/>
       <c r="B5" s="70" t="s">
         <v>21</v>
       </c>
@@ -1793,7 +1810,7 @@
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="108"/>
+      <c r="A6" s="114"/>
       <c r="B6" s="70" t="s">
         <v>65</v>
       </c>
@@ -1806,7 +1823,7 @@
       <c r="E6" s="74"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="108"/>
+      <c r="A7" s="114"/>
       <c r="B7" s="70" t="s">
         <v>52</v>
       </c>
@@ -1819,7 +1836,7 @@
       <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
+      <c r="A8" s="114"/>
       <c r="B8" s="70" t="s">
         <v>69</v>
       </c>
@@ -1832,25 +1849,25 @@
       <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
+      <c r="A9" s="114"/>
       <c r="B9" s="90" t="s">
         <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D9" s="12">
-        <v>42706</v>
+        <v>42745</v>
       </c>
       <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" s="12">
         <v>42720</v>
@@ -1858,12 +1875,12 @@
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="90" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D11" s="12">
         <v>42745</v>
@@ -1871,14 +1888,14 @@
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="70"/>
       <c r="C12" s="69"/>
       <c r="D12" s="7"/>
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="159" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -1893,7 +1910,7 @@
       <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="160"/>
       <c r="B14" s="67" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1923,7 @@
       <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="67" t="s">
         <v>22</v>
       </c>
@@ -1919,7 +1936,7 @@
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="111"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="67" t="s">
         <v>46</v>
       </c>
@@ -1932,7 +1949,7 @@
       <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="111"/>
+      <c r="A17" s="160"/>
       <c r="B17" s="67" t="s">
         <v>59</v>
       </c>
@@ -1945,35 +1962,35 @@
       <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="111"/>
+      <c r="A18" s="160"/>
       <c r="B18" s="7"/>
       <c r="C18" s="69"/>
       <c r="D18" s="7"/>
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="111"/>
+      <c r="A19" s="160"/>
       <c r="B19" s="7"/>
       <c r="C19" s="69"/>
       <c r="D19" s="7"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
+      <c r="A20" s="160"/>
       <c r="B20" s="7"/>
       <c r="C20" s="69"/>
       <c r="D20" s="7"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
+      <c r="A21" s="160"/>
       <c r="B21" s="7"/>
       <c r="C21" s="69"/>
       <c r="D21" s="7"/>
       <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="111"/>
+      <c r="A22" s="160"/>
       <c r="B22" s="80" t="s">
         <v>120</v>
       </c>
@@ -1983,12 +2000,12 @@
       <c r="D22" s="62">
         <v>42668</v>
       </c>
-      <c r="E22" s="105" t="s">
+      <c r="E22" s="111" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="111"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="81" t="s">
         <v>124</v>
       </c>
@@ -1998,10 +2015,10 @@
       <c r="D23" s="11">
         <v>42669</v>
       </c>
-      <c r="E23" s="106"/>
+      <c r="E23" s="112"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="111"/>
+      <c r="A24" s="160"/>
       <c r="B24" s="81" t="s">
         <v>126</v>
       </c>
@@ -2011,10 +2028,10 @@
       <c r="D24" s="11">
         <v>42669</v>
       </c>
-      <c r="E24" s="106"/>
+      <c r="E24" s="112"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="111"/>
+      <c r="A25" s="160"/>
       <c r="B25" s="81" t="s">
         <v>127</v>
       </c>
@@ -2024,10 +2041,10 @@
       <c r="D25" s="11">
         <v>42671</v>
       </c>
-      <c r="E25" s="106"/>
+      <c r="E25" s="112"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="111"/>
+      <c r="A26" s="160"/>
       <c r="B26" s="81" t="s">
         <v>129</v>
       </c>
@@ -2037,10 +2054,10 @@
       <c r="D26" s="11">
         <v>42671</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="112"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="111"/>
+      <c r="A27" s="160"/>
       <c r="B27" s="81" t="s">
         <v>130</v>
       </c>
@@ -2050,10 +2067,10 @@
       <c r="D27" s="11">
         <v>42672</v>
       </c>
-      <c r="E27" s="106"/>
+      <c r="E27" s="112"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
+      <c r="A28" s="160"/>
       <c r="B28" s="81" t="s">
         <v>146</v>
       </c>
@@ -2063,10 +2080,10 @@
       <c r="D28" s="11">
         <v>42675</v>
       </c>
-      <c r="E28" s="106"/>
+      <c r="E28" s="112"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
+      <c r="A29" s="160"/>
       <c r="B29" s="81" t="s">
         <v>149</v>
       </c>
@@ -2076,10 +2093,10 @@
       <c r="D29" s="11">
         <v>42674</v>
       </c>
-      <c r="E29" s="106"/>
+      <c r="E29" s="112"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
+      <c r="A30" s="160"/>
       <c r="B30" s="81" t="s">
         <v>152</v>
       </c>
@@ -2089,10 +2106,10 @@
       <c r="D30" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="106"/>
+      <c r="E30" s="112"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="81" t="s">
         <v>154</v>
       </c>
@@ -2102,14 +2119,14 @@
       <c r="D31" s="11">
         <v>42676</v>
       </c>
-      <c r="E31" s="106"/>
+      <c r="E31" s="112"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
+      <c r="A32" s="161"/>
       <c r="B32" s="85"/>
       <c r="C32" s="75"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="107"/>
+      <c r="E32" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2167,10 +2184,10 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="119" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2191,8 +2208,8 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="120"/>
       <c r="C3" s="55" t="s">
         <v>40</v>
       </c>
@@ -2209,8 +2226,8 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="55" t="s">
         <v>16</v>
       </c>
@@ -2227,8 +2244,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="118"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="121"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -2239,8 +2256,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="116" t="s">
+      <c r="A6" s="117"/>
+      <c r="B6" s="119" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -2261,8 +2278,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="118"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="121"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -2273,8 +2290,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="117"/>
+      <c r="B8" s="119" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -2295,8 +2312,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="118"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="121"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -2307,8 +2324,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="116" t="s">
+      <c r="A10" s="117"/>
+      <c r="B10" s="119" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -2329,8 +2346,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2341,8 +2358,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="116" t="s">
+      <c r="A12" s="117"/>
+      <c r="B12" s="119" t="s">
         <v>59</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -2363,8 +2380,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="118"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -2375,7 +2392,7 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="66" t="s">
         <v>66</v>
       </c>
@@ -2395,7 +2412,7 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
+      <c r="A15" s="117"/>
       <c r="B15" s="67" t="s">
         <v>133</v>
       </c>
@@ -2415,7 +2432,7 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
+      <c r="A16" s="117"/>
       <c r="B16" s="67" t="s">
         <v>135</v>
       </c>
@@ -2435,7 +2452,7 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="67" t="s">
         <v>137</v>
       </c>
@@ -2457,7 +2474,7 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="67" t="s">
         <v>139</v>
       </c>
@@ -2479,7 +2496,7 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="67" t="s">
         <v>141</v>
       </c>
@@ -2499,7 +2516,7 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="81" t="s">
         <v>146</v>
       </c>
@@ -2519,7 +2536,7 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
+      <c r="A21" s="117"/>
       <c r="B21" s="81" t="s">
         <v>149</v>
       </c>
@@ -2539,7 +2556,7 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
+      <c r="A22" s="117"/>
       <c r="B22" s="81" t="s">
         <v>152</v>
       </c>
@@ -2559,7 +2576,7 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="86" t="s">
         <v>154</v>
       </c>
@@ -2579,7 +2596,7 @@
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="86"/>
       <c r="C24" s="87"/>
       <c r="D24" s="11"/>
@@ -2591,7 +2608,7 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="115"/>
+      <c r="A25" s="118"/>
       <c r="B25" s="79"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -2652,10 +2669,10 @@
   <sheetPr>
     <tabColor rgb="FF0FAAAF"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2692,22 +2709,22 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="129" t="s">
+      <c r="C2" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="124">
+      <c r="D2" s="127">
         <v>42486</v>
       </c>
-      <c r="E2" s="116" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="127" t="s">
+      <c r="E2" s="119" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="130" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="25"/>
@@ -2716,20 +2733,20 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="128"/>
+      <c r="A3" s="129"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="131"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
-      <c r="B4" s="123"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="102" t="s">
         <v>8</v>
       </c>
@@ -2746,33 +2763,33 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
-      <c r="B5" s="123"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="102"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="156"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="121" t="s">
-        <v>171</v>
+      <c r="A6" s="129"/>
+      <c r="B6" s="124" t="s">
+        <v>169</v>
       </c>
       <c r="C6" s="101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="103">
         <v>42745</v>
       </c>
       <c r="E6" s="101" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="158" t="s">
-        <v>175</v>
+        <v>172</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>173</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2780,22 +2797,22 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
-      <c r="B7" s="123"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="102"/>
       <c r="D7" s="104"/>
       <c r="E7" s="78"/>
-      <c r="F7" s="156"/>
+      <c r="F7" s="105"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="126"/>
-      <c r="B8" s="122"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="157"/>
+      <c r="D8" s="106"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32"/>
       <c r="G8" s="26"/>
@@ -2804,8 +2821,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="126"/>
-      <c r="B9" s="123" t="s">
+      <c r="A9" s="129"/>
+      <c r="B9" s="126" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="102" t="s">
@@ -2826,8 +2843,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
-      <c r="B10" s="123"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2844,8 +2861,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="123"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2862,8 +2879,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="126"/>
-      <c r="B12" s="122"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="125"/>
       <c r="C12" s="20"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -2874,8 +2891,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="126"/>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="124" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2896,8 +2913,8 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
-      <c r="B14" s="123"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="9" t="s">
         <v>55</v>
       </c>
@@ -2914,8 +2931,8 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
-      <c r="B15" s="123"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2930,16 +2947,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
-      <c r="B16" s="122"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="125"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="126"/>
-      <c r="B17" s="121" t="s">
+      <c r="A17" s="129"/>
+      <c r="B17" s="124" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2956,16 +2973,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="126"/>
-      <c r="B18" s="122"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="125"/>
       <c r="C18" s="3"/>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="126"/>
-      <c r="B19" s="121" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="124" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -2982,16 +2999,16 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="126"/>
-      <c r="B20" s="122"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="126"/>
-      <c r="B21" s="121" t="s">
+      <c r="A21" s="129"/>
+      <c r="B21" s="124" t="s">
         <v>53</v>
       </c>
       <c r="C21" s="50" t="s">
@@ -3008,8 +3025,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="126"/>
-      <c r="B22" s="123"/>
+      <c r="A22" s="129"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="51" t="s">
         <v>56</v>
       </c>
@@ -3024,20 +3041,20 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="126"/>
-      <c r="B23" s="122"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="125"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
       <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="126"/>
-      <c r="B24" s="121" t="s">
+      <c r="A24" s="129"/>
+      <c r="B24" s="124" t="s">
         <v>69</v>
       </c>
       <c r="C24" s="64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="49">
         <v>42670</v>
@@ -3050,64 +3067,78 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="126"/>
-      <c r="B25" s="122"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="125"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="126"/>
-      <c r="B26" s="119" t="s">
-        <v>159</v>
+      <c r="A26" s="129"/>
+      <c r="B26" s="122" t="s">
+        <v>158</v>
       </c>
       <c r="C26" s="91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D26" s="92">
         <v>42706</v>
       </c>
       <c r="E26" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F26" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="F26" s="58" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="126"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="35"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="108" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="109">
+        <v>42745</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="110" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="126"/>
-      <c r="B28" s="119" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="94" t="s">
+      <c r="A28" s="129"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="35"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="129"/>
+      <c r="B29" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="95">
+      <c r="D29" s="95">
         <v>42720</v>
       </c>
-      <c r="E28" s="63" t="s">
+      <c r="E29" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="F28" s="58" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="126"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="97"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="129"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3120,12 +3151,12 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A2:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3147,538 +3178,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="143" t="s">
+      <c r="B1" s="153"/>
+      <c r="C1" s="146" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="144" t="s">
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="147" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="145"/>
-      <c r="N1" s="146"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="149"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="140" t="s">
+      <c r="B2" s="136"/>
+      <c r="C2" s="143" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="131" t="s">
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
+      <c r="J2" s="144"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="132"/>
-      <c r="N2" s="133"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="136"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="150" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="149"/>
-      <c r="C3" s="147" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
-      <c r="I3" s="148"/>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="147" t="s">
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="131" t="s">
+      <c r="B4" s="136"/>
+      <c r="C4" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="131" t="s">
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="M4" s="132"/>
-      <c r="N4" s="133"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="136"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="131" t="s">
+      <c r="A5" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="131" t="s">
+      <c r="B5" s="136"/>
+      <c r="C5" s="134" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="131" t="s">
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="M5" s="132"/>
-      <c r="N5" s="133"/>
+      <c r="M5" s="135"/>
+      <c r="N5" s="136"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="131" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="134" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="131" t="s">
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="132"/>
-      <c r="N6" s="133"/>
+      <c r="M6" s="135"/>
+      <c r="N6" s="136"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
+      <c r="A7" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="133"/>
-      <c r="C7" s="131" t="s">
+      <c r="B7" s="136"/>
+      <c r="C7" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="132"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="131" t="s">
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="135"/>
+      <c r="K7" s="136"/>
+      <c r="L7" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="M7" s="132"/>
-      <c r="N7" s="133"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="136"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="131" t="s">
+      <c r="A8" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="133"/>
-      <c r="C8" s="131" t="s">
+      <c r="B8" s="136"/>
+      <c r="C8" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="131" t="s">
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="136"/>
+      <c r="L8" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="M8" s="132"/>
-      <c r="N8" s="133"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="136"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="131" t="s">
+      <c r="B9" s="136"/>
+      <c r="C9" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="131" t="s">
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="M9" s="132"/>
-      <c r="N9" s="133"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="136"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="131" t="s">
+      <c r="B10" s="136"/>
+      <c r="C10" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="131" t="s">
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="133"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="136"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="134" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="133"/>
-      <c r="C11" s="131" t="s">
+      <c r="B11" s="136"/>
+      <c r="C11" s="134" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="131" t="s">
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="133"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="133"/>
-      <c r="C12" s="131" t="s">
+      <c r="B12" s="136"/>
+      <c r="C12" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="131" t="s">
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="132"/>
-      <c r="N12" s="133"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="136"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="131" t="s">
+      <c r="B13" s="136"/>
+      <c r="C13" s="134" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="131" t="s">
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="132"/>
-      <c r="N13" s="133"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="136"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="131" t="s">
+      <c r="B14" s="136"/>
+      <c r="C14" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="131" t="s">
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="135"/>
+      <c r="I14" s="135"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="132"/>
-      <c r="N14" s="133"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="136"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="133"/>
-      <c r="C15" s="131" t="s">
+      <c r="B15" s="136"/>
+      <c r="C15" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="131" t="s">
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="135"/>
+      <c r="I15" s="135"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="132"/>
-      <c r="N15" s="133"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="136"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="133"/>
-      <c r="C16" s="131" t="s">
+      <c r="B16" s="136"/>
+      <c r="C16" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="131" t="s">
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="134" t="s">
         <v>111</v>
       </c>
-      <c r="M16" s="132"/>
-      <c r="N16" s="133"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="136"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="133"/>
-      <c r="C17" s="140" t="s">
+      <c r="B17" s="136"/>
+      <c r="C17" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="141"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="139" t="s">
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="133"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="136"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="131"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="136"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="131"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="133"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="135"/>
+      <c r="I19" s="135"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="136"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="131"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="134"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="136"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="131"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="136"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="135"/>
+      <c r="I21" s="135"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="134"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="136"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="131"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="136"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="134"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="136"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="131"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="135"/>
+      <c r="E23" s="135"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="135"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="135"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="134"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="136"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="131"/>
-      <c r="B24" s="133"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="135"/>
+      <c r="H24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="134"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="136"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="133"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="131"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="136"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="136"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="131"/>
-      <c r="B26" s="133"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="133"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="136"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="135"/>
+      <c r="E26" s="135"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="135"/>
+      <c r="H26" s="135"/>
+      <c r="I26" s="135"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="136"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="134"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="137"/>
-      <c r="I27" s="137"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="138"/>
-      <c r="L27" s="134"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="136"/>
+      <c r="A27" s="137"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -3790,121 +3821,121 @@
       <c r="A1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="154" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="154" t="s">
+      <c r="C1" s="154"/>
+      <c r="D1" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
+      <c r="I1" s="157"/>
+      <c r="J1" s="158"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="152">
+      <c r="B2" s="155">
         <v>42620</v>
       </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="132" t="s">
+      <c r="C2" s="155"/>
+      <c r="D2" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
-      <c r="J2" s="133"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="152">
+      <c r="B3" s="155">
         <v>42626</v>
       </c>
-      <c r="C3" s="152"/>
-      <c r="D3" s="132" t="s">
+      <c r="C3" s="155"/>
+      <c r="D3" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="132"/>
-      <c r="J3" s="133"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="136"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="152">
+      <c r="B4" s="155">
         <v>42674</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="132" t="s">
+      <c r="C4" s="155"/>
+      <c r="D4" s="135" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="133"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="132"/>
-      <c r="G5" s="132"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="136"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="135"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="136"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="138"/>
+      <c r="J8" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,10 +215,6 @@
   </si>
   <si>
     <t>附属文件ogg_status.sh  hostlist  sshpass.rpm安装包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -721,6 +717,17 @@
   </si>
   <si>
     <t>-v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.1</t>
+  </si>
+  <si>
+    <t>-v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1246,6 +1253,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,6 +1274,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1279,28 +1301,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,95 +1313,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1727,8 +1740,8 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1752,11 +1765,11 @@
         <v>27</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="116" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -1771,7 +1784,7 @@
       <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="114"/>
+      <c r="A3" s="116"/>
       <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
@@ -1784,7 +1797,7 @@
       <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
+      <c r="A4" s="116"/>
       <c r="B4" s="70" t="s">
         <v>14</v>
       </c>
@@ -1797,7 +1810,7 @@
       <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
+      <c r="A5" s="116"/>
       <c r="B5" s="70" t="s">
         <v>21</v>
       </c>
@@ -1810,25 +1823,25 @@
       <c r="E5" s="74"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
+      <c r="A6" s="116"/>
       <c r="B6" s="70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="12">
+        <v>42774</v>
+      </c>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="116"/>
+      <c r="B7" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="12">
-        <v>42643</v>
-      </c>
-      <c r="E6" s="74"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="70" t="s">
-        <v>52</v>
-      </c>
       <c r="C7" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="12">
         <v>42656</v>
@@ -1836,12 +1849,12 @@
       <c r="E7" s="74"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
+      <c r="A8" s="116"/>
       <c r="B8" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="69" t="s">
         <v>69</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>70</v>
       </c>
       <c r="D8" s="12">
         <v>42670</v>
@@ -1849,12 +1862,12 @@
       <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
+      <c r="A9" s="116"/>
       <c r="B9" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D9" s="12">
         <v>42745</v>
@@ -1862,12 +1875,12 @@
       <c r="E9" s="74"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="115"/>
+      <c r="A10" s="117"/>
       <c r="B10" s="93" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" s="12">
         <v>42720</v>
@@ -1875,12 +1888,12 @@
       <c r="E10" s="74"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="90" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="12">
         <v>42745</v>
@@ -1888,14 +1901,14 @@
       <c r="E11" s="74"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="115"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="70"/>
       <c r="C12" s="69"/>
       <c r="D12" s="7"/>
       <c r="E12" s="74"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="118" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="66" t="s">
@@ -1910,7 +1923,7 @@
       <c r="E13" s="73"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="160"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="67" t="s">
         <v>15</v>
       </c>
@@ -1923,7 +1936,7 @@
       <c r="E14" s="74"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="160"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="67" t="s">
         <v>22</v>
       </c>
@@ -1936,7 +1949,7 @@
       <c r="E15" s="74"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="160"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="67" t="s">
         <v>46</v>
       </c>
@@ -1949,12 +1962,12 @@
       <c r="E16" s="74"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="160"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="69" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="12">
         <v>42661</v>
@@ -1962,171 +1975,171 @@
       <c r="E17" s="74"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="160"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="7"/>
       <c r="C18" s="69"/>
       <c r="D18" s="7"/>
       <c r="E18" s="74"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="160"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="7"/>
       <c r="C19" s="69"/>
       <c r="D19" s="7"/>
       <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="160"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="7"/>
       <c r="C20" s="69"/>
       <c r="D20" s="7"/>
       <c r="E20" s="74"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="160"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="7"/>
       <c r="C21" s="69"/>
       <c r="D21" s="7"/>
       <c r="E21" s="74"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="160"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>120</v>
-      </c>
-      <c r="C22" s="68" t="s">
-        <v>121</v>
       </c>
       <c r="D22" s="62">
         <v>42668</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="113" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="119"/>
+      <c r="B23" s="81" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="160"/>
-      <c r="B23" s="81" t="s">
+      <c r="C23" s="69" t="s">
         <v>124</v>
-      </c>
-      <c r="C23" s="69" t="s">
-        <v>125</v>
       </c>
       <c r="D23" s="11">
         <v>42669</v>
       </c>
-      <c r="E23" s="112"/>
+      <c r="E23" s="114"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="160"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="81" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="11">
         <v>42669</v>
       </c>
-      <c r="E24" s="112"/>
+      <c r="E24" s="114"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="160"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="69" t="s">
         <v>127</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>128</v>
       </c>
       <c r="D25" s="11">
         <v>42671</v>
       </c>
-      <c r="E25" s="112"/>
+      <c r="E25" s="114"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="81" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C26" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" s="11">
         <v>42671</v>
       </c>
-      <c r="E26" s="112"/>
+      <c r="E26" s="114"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="160"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="69" t="s">
         <v>130</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>131</v>
       </c>
       <c r="D27" s="11">
         <v>42672</v>
       </c>
-      <c r="E27" s="112"/>
+      <c r="E27" s="114"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="160"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>146</v>
-      </c>
-      <c r="C28" s="82" t="s">
-        <v>147</v>
       </c>
       <c r="D28" s="11">
         <v>42675</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="114"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" s="82" t="s">
         <v>149</v>
-      </c>
-      <c r="C29" s="82" t="s">
-        <v>150</v>
       </c>
       <c r="D29" s="11">
         <v>42674</v>
       </c>
-      <c r="E29" s="112"/>
+      <c r="E29" s="114"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="160"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="114"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="119"/>
+      <c r="B31" s="81" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="112"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="160"/>
-      <c r="B31" s="81" t="s">
+      <c r="C31" s="82" t="s">
         <v>154</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>155</v>
       </c>
       <c r="D31" s="11">
         <v>42676</v>
       </c>
-      <c r="E31" s="112"/>
+      <c r="E31" s="114"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="161"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="85"/>
       <c r="C32" s="75"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="113"/>
+      <c r="E32" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2184,10 +2197,10 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="A2" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="124" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2208,8 +2221,8 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="120"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="125"/>
       <c r="C3" s="55" t="s">
         <v>40</v>
       </c>
@@ -2226,8 +2239,8 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="120"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="55" t="s">
         <v>16</v>
       </c>
@@ -2244,8 +2257,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="121"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -2256,8 +2269,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="119" t="s">
+      <c r="A6" s="122"/>
+      <c r="B6" s="124" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -2278,8 +2291,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="121"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -2290,8 +2303,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="119" t="s">
+      <c r="A8" s="122"/>
+      <c r="B8" s="124" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -2312,8 +2325,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="121"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -2324,8 +2337,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="119" t="s">
+      <c r="A10" s="122"/>
+      <c r="B10" s="124" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -2346,8 +2359,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="125"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2358,21 +2371,21 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="119" t="s">
+      <c r="A12" s="122"/>
+      <c r="B12" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>59</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>60</v>
       </c>
       <c r="D12" s="62">
         <v>42661</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -2380,8 +2393,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="121"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -2392,18 +2405,18 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>66</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>67</v>
       </c>
       <c r="D14" s="62">
         <v>42668</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="19"/>
@@ -2412,18 +2425,18 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" s="11">
         <v>42669</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="19"/>
@@ -2432,18 +2445,18 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="11">
         <v>42669</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="19"/>
@@ -2452,21 +2465,21 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D17" s="11">
         <v>42671</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -2474,21 +2487,21 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="11">
         <v>42671</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -2496,18 +2509,18 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D19" s="11">
         <v>42672</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="19"/>
@@ -2516,18 +2529,18 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="82" t="s">
         <v>146</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>147</v>
       </c>
       <c r="D20" s="11">
         <v>42675</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="19"/>
@@ -2536,18 +2549,18 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="82" t="s">
         <v>149</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>150</v>
       </c>
       <c r="D21" s="11">
         <v>42674</v>
       </c>
       <c r="E21" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="19"/>
@@ -2556,18 +2569,18 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
+      <c r="A22" s="122"/>
       <c r="B22" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="82" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="E22" s="83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="84"/>
       <c r="G22" s="19"/>
@@ -2576,18 +2589,18 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
+      <c r="A23" s="122"/>
       <c r="B23" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="87" t="s">
         <v>154</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>155</v>
       </c>
       <c r="D23" s="11">
         <v>42676</v>
       </c>
       <c r="E23" s="83" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="84"/>
       <c r="G23" s="19"/>
@@ -2596,7 +2609,7 @@
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
+      <c r="A24" s="122"/>
       <c r="B24" s="86"/>
       <c r="C24" s="87"/>
       <c r="D24" s="11"/>
@@ -2608,7 +2621,7 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="118"/>
+      <c r="A25" s="123"/>
       <c r="B25" s="79"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -2669,10 +2682,10 @@
   <sheetPr>
     <tabColor rgb="FF0FAAAF"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2709,22 +2722,22 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="127" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2" s="137">
         <v>42486</v>
       </c>
-      <c r="E2" s="119" t="s">
-        <v>171</v>
-      </c>
-      <c r="F2" s="130" t="s">
+      <c r="E2" s="124" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="129" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="25"/>
@@ -2733,20 +2746,20 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="126"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="131"/>
       <c r="C3" s="133"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="131"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="130"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
-      <c r="B4" s="126"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="102" t="s">
         <v>8</v>
       </c>
@@ -2763,8 +2776,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="102"/>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
@@ -2775,21 +2788,21 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
-      <c r="B6" s="124" t="s">
+      <c r="A6" s="139"/>
+      <c r="B6" s="127" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="101" t="s">
         <v>169</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>170</v>
       </c>
       <c r="D6" s="103">
         <v>42745</v>
       </c>
       <c r="E6" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="107" t="s">
         <v>172</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>173</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2797,8 +2810,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
-      <c r="B7" s="126"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="131"/>
       <c r="C7" s="102"/>
       <c r="D7" s="104"/>
       <c r="E7" s="78"/>
@@ -2809,8 +2822,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="139"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="3"/>
       <c r="D8" s="106"/>
       <c r="E8" s="31"/>
@@ -2821,8 +2834,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
-      <c r="B9" s="126" t="s">
+      <c r="A9" s="139"/>
+      <c r="B9" s="131" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="102" t="s">
@@ -2843,8 +2856,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
-      <c r="B10" s="126"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2861,8 +2874,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="126"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2879,8 +2892,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="20"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -2891,8 +2904,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
-      <c r="B13" s="124" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="127" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2913,10 +2926,10 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
-      <c r="B14" s="126"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="39">
         <v>42580</v>
@@ -2931,8 +2944,8 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
-      <c r="B15" s="126"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2947,16 +2960,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
-      <c r="B17" s="124" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="127" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2973,17 +2986,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
-      <c r="B18" s="125"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="3"/>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
-      <c r="B19" s="124" t="s">
-        <v>64</v>
+      <c r="A19" s="139"/>
+      <c r="B19" s="127" t="s">
+        <v>63</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>20</v>
@@ -2992,158 +3005,178 @@
         <v>42643</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="35"/>
+      <c r="A20" s="139"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="112" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="12">
+        <v>42774</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="111"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="129"/>
-      <c r="B21" s="124" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="139"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="139"/>
+      <c r="B22" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="13">
         <v>42654</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="139"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="12">
+        <v>42656</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="139"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="139"/>
+      <c r="B25" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" s="49">
+        <v>42670</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="15" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="129"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="12">
-        <v>42656</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="129"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="35"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="129"/>
-      <c r="B24" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="64" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="139"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="35"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="139"/>
+      <c r="B27" s="134" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="91" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="92">
+        <v>42706</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="49">
-        <v>42670</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="129"/>
-      <c r="B26" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="91" t="s">
+      <c r="F27" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="139"/>
+      <c r="B28" s="135"/>
+      <c r="C28" s="108" t="s">
+        <v>174</v>
+      </c>
+      <c r="D28" s="109">
+        <v>42745</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="139"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="139"/>
+      <c r="B30" s="134" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="95">
+        <v>42720</v>
+      </c>
+      <c r="E30" s="63" t="s">
         <v>163</v>
       </c>
-      <c r="D26" s="92">
-        <v>42706</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="129"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="109">
-        <v>42745</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="110" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="129"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="35"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="129"/>
-      <c r="B29" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="94" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="95">
-        <v>42720</v>
-      </c>
-      <c r="E29" s="63" t="s">
+      <c r="F30" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="129"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="97"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="139"/>
+      <c r="B31" s="136"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B9:B12"/>
@@ -3151,12 +3184,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3178,12 +3205,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="140" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="146" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="146" t="s">
-        <v>77</v>
       </c>
       <c r="D1" s="146"/>
       <c r="E1" s="146"/>
@@ -3193,550 +3220,567 @@
       <c r="I1" s="146"/>
       <c r="J1" s="146"/>
       <c r="K1" s="146"/>
-      <c r="L1" s="147" t="s">
+      <c r="L1" s="149" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="150"/>
+      <c r="N1" s="151"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="141" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="142"/>
+      <c r="C2" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="145"/>
+      <c r="N2" s="142"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="143" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="144"/>
+      <c r="C3" s="143" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="143" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="152"/>
+      <c r="N3" s="144"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="142"/>
+      <c r="C4" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" s="145"/>
+      <c r="N4" s="142"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="141" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="142"/>
+      <c r="C5" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="M5" s="145"/>
+      <c r="N5" s="142"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="142"/>
+      <c r="C6" s="141" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="145"/>
+      <c r="N6" s="142"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="142"/>
+      <c r="C7" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" s="145"/>
+      <c r="N7" s="142"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="142"/>
+      <c r="C8" s="141" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="145"/>
+      <c r="N8" s="142"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="141" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="142"/>
+      <c r="C9" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="145"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="141" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="145"/>
+      <c r="N9" s="142"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="M1" s="148"/>
-      <c r="N1" s="149"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="145"/>
-      <c r="L2" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="136"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="150" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="150" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="134" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="134" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="136"/>
-      <c r="L4" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="M4" s="135"/>
-      <c r="N4" s="136"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="134" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="135"/>
-      <c r="N5" s="136"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="134" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="134" t="s">
+      <c r="B10" s="142"/>
+      <c r="C10" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="M10" s="145"/>
+      <c r="N10" s="142"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="142"/>
+      <c r="C11" s="141" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" s="145"/>
+      <c r="N11" s="142"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="142"/>
+      <c r="C12" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="145"/>
+      <c r="N12" s="142"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="141" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="142"/>
+      <c r="C13" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="145"/>
+      <c r="N13" s="142"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="141" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="142"/>
+      <c r="C14" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="145"/>
+      <c r="N14" s="142"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="141" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="142"/>
+      <c r="C15" s="141" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="M6" s="135"/>
-      <c r="N6" s="136"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="134" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="136"/>
-      <c r="C7" s="134" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="135"/>
-      <c r="N7" s="136"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="134" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="136"/>
-      <c r="C8" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="136"/>
-      <c r="L8" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="136"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="136"/>
-      <c r="C9" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="136"/>
-      <c r="L9" s="134" t="s">
-        <v>98</v>
-      </c>
-      <c r="M9" s="135"/>
-      <c r="N9" s="136"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="134" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="136"/>
-      <c r="C10" s="134" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
-      <c r="H10" s="135"/>
-      <c r="I10" s="135"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="136"/>
-      <c r="L10" s="134" t="s">
-        <v>95</v>
-      </c>
-      <c r="M10" s="135"/>
-      <c r="N10" s="136"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="134" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="135"/>
-      <c r="I11" s="135"/>
-      <c r="J11" s="135"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="134" t="s">
-        <v>90</v>
-      </c>
-      <c r="M11" s="135"/>
-      <c r="N11" s="136"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="134" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="136"/>
-      <c r="C12" s="134" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="135"/>
-      <c r="I12" s="135"/>
-      <c r="J12" s="135"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="136"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="134" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="134" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="135"/>
-      <c r="I13" s="135"/>
-      <c r="J13" s="135"/>
-      <c r="K13" s="136"/>
-      <c r="L13" s="134" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="135"/>
-      <c r="N13" s="136"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="136"/>
-      <c r="C14" s="134" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="135"/>
-      <c r="I14" s="135"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="134" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="136"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="136"/>
-      <c r="C15" s="134" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="134" t="s">
+      <c r="M15" s="145"/>
+      <c r="N15" s="142"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="136"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="B16" s="142"/>
+      <c r="C16" s="141" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="134" t="s">
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="141" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="145"/>
+      <c r="N16" s="142"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="141" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="136"/>
-      <c r="L16" s="134" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="136"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="B17" s="142"/>
+      <c r="C17" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="B17" s="136"/>
-      <c r="C17" s="143" t="s">
+      <c r="D17" s="147"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="148"/>
+      <c r="L17" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="142" t="s">
-        <v>116</v>
-      </c>
-      <c r="M17" s="135"/>
-      <c r="N17" s="136"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="142"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="134"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="136"/>
+      <c r="A18" s="141"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="148"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="142"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="134"/>
-      <c r="B19" s="136"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="136"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="136"/>
+      <c r="A19" s="141"/>
+      <c r="B19" s="142"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="142"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="134"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="135"/>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="134"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="136"/>
+      <c r="A20" s="141"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="142"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="134"/>
-      <c r="B21" s="136"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="136"/>
-      <c r="L21" s="134"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="136"/>
+      <c r="A21" s="141"/>
+      <c r="B21" s="142"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="142"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="142"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="134"/>
-      <c r="B22" s="136"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="134"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="136"/>
+      <c r="A22" s="141"/>
+      <c r="B22" s="142"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="142"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="142"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="134"/>
-      <c r="B23" s="136"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="135"/>
-      <c r="E23" s="135"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="135"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="135"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="134"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="136"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="142"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="142"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="142"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="134"/>
-      <c r="B24" s="136"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="135"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="136"/>
-      <c r="L24" s="134"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="136"/>
+      <c r="A24" s="141"/>
+      <c r="B24" s="142"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="142"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="142"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
-      <c r="B25" s="136"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="134"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="136"/>
+      <c r="A25" s="141"/>
+      <c r="B25" s="142"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="142"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="142"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="134"/>
-      <c r="B26" s="136"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="136"/>
+      <c r="A26" s="141"/>
+      <c r="B26" s="142"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="142"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="142"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="137"/>
-      <c r="B27" s="139"/>
-      <c r="C27" s="123"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="137"/>
-      <c r="M27" s="138"/>
-      <c r="N27" s="139"/>
+      <c r="A27" s="156"/>
+      <c r="B27" s="157"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
@@ -3753,47 +3797,30 @@
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3821,140 +3848,140 @@
       <c r="A1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="157" t="s">
+      <c r="C1" s="163"/>
+      <c r="D1" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="158"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="160"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="155">
+      <c r="B2" s="161">
         <v>42620</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="135" t="s">
+      <c r="C2" s="161"/>
+      <c r="D2" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="142"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="155">
+      <c r="B3" s="161">
         <v>42626</v>
       </c>
-      <c r="C3" s="155"/>
-      <c r="D3" s="135" t="s">
+      <c r="C3" s="161"/>
+      <c r="D3" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="136"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="142"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="161">
+        <v>42674</v>
+      </c>
+      <c r="C4" s="161"/>
+      <c r="D4" s="145" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="155">
-        <v>42674</v>
-      </c>
-      <c r="C4" s="155"/>
-      <c r="D4" s="135" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="135"/>
-      <c r="F4" s="135"/>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="135"/>
-      <c r="J4" s="136"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="155"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="135"/>
-      <c r="I5" s="135"/>
-      <c r="J5" s="136"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="142"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="135"/>
-      <c r="I6" s="135"/>
-      <c r="J6" s="136"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="142"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="155"/>
-      <c r="C7" s="155"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="135"/>
-      <c r="J7" s="136"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="139"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="184">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>批量主机互信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trust.py</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,14 +279,6 @@
   </si>
   <si>
     <t>系统基础信息模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crontab_ogg_ssh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,34 +668,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>mysql5_7_install.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-v1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>安装MySQL5.6.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装MySQL5.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要安装4个mysql相关的软件common libs client server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>mysql5_7_install.sh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-v1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装MySQL5.6.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装MySQL5.7.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要安装4个mysql相关的软件common libs client server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mysql5_7_install.sh</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-v1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -727,7 +711,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>修复ogg进程的格式问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_ogg_ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_ogg_ssh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>修复bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du_sh.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du_sh.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程批量查询指定路径下的大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属文件  hostlist sshpass.rpm安装包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -943,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1145,15 +1161,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1259,12 +1272,45 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1301,10 +1347,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1313,103 +1380,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1738,10 +1784,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1751,11 +1797,11 @@
     <col min="4" max="4" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1764,27 +1810,29 @@
       <c r="D1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="77" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="116" t="s">
+      <c r="E1" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="75" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="11">
         <v>42620</v>
       </c>
-      <c r="E2" s="74"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="59"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="124"/>
       <c r="B3" s="70" t="s">
         <v>9</v>
       </c>
@@ -1794,10 +1842,11 @@
       <c r="D3" s="12">
         <v>42620</v>
       </c>
-      <c r="E3" s="74"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="59"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="124"/>
       <c r="B4" s="70" t="s">
         <v>14</v>
       </c>
@@ -1807,10 +1856,11 @@
       <c r="D4" s="12">
         <v>42584</v>
       </c>
-      <c r="E4" s="74"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="59"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="124"/>
       <c r="B5" s="70" t="s">
         <v>21</v>
       </c>
@@ -1820,23 +1870,25 @@
       <c r="D5" s="12">
         <v>42605</v>
       </c>
-      <c r="E5" s="74"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="59"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="124"/>
       <c r="B6" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="69" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D6" s="12">
         <v>42774</v>
       </c>
-      <c r="E6" s="74"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="59"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="124"/>
       <c r="B7" s="70" t="s">
         <v>51</v>
       </c>
@@ -1846,306 +1898,353 @@
       <c r="D7" s="12">
         <v>42656</v>
       </c>
-      <c r="E7" s="74"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="59"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="124"/>
       <c r="B8" s="70" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>69</v>
+        <v>178</v>
       </c>
       <c r="D8" s="12">
-        <v>42670</v>
-      </c>
-      <c r="E8" s="74"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="90" t="s">
-        <v>156</v>
+        <v>42775</v>
+      </c>
+      <c r="E8" s="113"/>
+      <c r="F8" s="59"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="124"/>
+      <c r="B9" s="87" t="s">
+        <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D9" s="12">
         <v>42745</v>
       </c>
-      <c r="E9" s="74"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="93" t="s">
-        <v>166</v>
+      <c r="E9" s="113"/>
+      <c r="F9" s="59"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="125"/>
+      <c r="B10" s="90" t="s">
+        <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="12">
         <v>42720</v>
       </c>
-      <c r="E10" s="74"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="90" t="s">
-        <v>173</v>
+      <c r="E10" s="113"/>
+      <c r="F10" s="59"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="87" t="s">
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="D11" s="12">
         <v>42745</v>
       </c>
-      <c r="E11" s="74"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="74"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+      <c r="E11" s="113"/>
+      <c r="F11" s="59"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="125"/>
+      <c r="B12" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="12">
+        <v>42786</v>
+      </c>
+      <c r="E12" s="114"/>
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="125"/>
+      <c r="B13" s="115"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="125"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="59"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B15" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C15" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D15" s="13">
         <v>42621</v>
       </c>
-      <c r="E13" s="73"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="119"/>
-      <c r="B14" s="67" t="s">
+      <c r="E15" s="112"/>
+      <c r="F15" s="59"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="127"/>
+      <c r="B16" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C16" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D16" s="12">
         <v>42572</v>
       </c>
-      <c r="E14" s="74"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="119"/>
-      <c r="B15" s="67" t="s">
+      <c r="E16" s="113"/>
+      <c r="F16" s="59"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="127"/>
+      <c r="B17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C17" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D17" s="12">
         <v>42611</v>
       </c>
-      <c r="E15" s="74"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="119"/>
-      <c r="B16" s="67" t="s">
+      <c r="E17" s="113"/>
+      <c r="F17" s="59"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="127"/>
+      <c r="B18" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C18" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D18" s="12">
         <v>42636</v>
       </c>
-      <c r="E16" s="74"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="119"/>
-      <c r="B17" s="67" t="s">
+      <c r="E18" s="113"/>
+      <c r="F18" s="59"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="127"/>
+      <c r="B19" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="12">
+      <c r="D19" s="12">
         <v>42661</v>
       </c>
-      <c r="E17" s="74"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="119"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="74"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="119"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="74"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="119"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="59"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="127"/>
       <c r="B20" s="7"/>
       <c r="C20" s="69"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="74"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="119"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="59"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="127"/>
       <c r="B21" s="7"/>
       <c r="C21" s="69"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="74"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="119"/>
-      <c r="B22" s="80" t="s">
+      <c r="E21" s="113"/>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="127"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="59"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="127"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="59"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="127"/>
+      <c r="B24" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="62">
+        <v>42668</v>
+      </c>
+      <c r="E24" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="F24" s="59"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="127"/>
+      <c r="B25" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="62">
-        <v>42668</v>
-      </c>
-      <c r="E22" s="113" t="s">
+      <c r="C25" s="69" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" s="11">
+        <v>42669</v>
+      </c>
+      <c r="E25" s="122"/>
+      <c r="F25" s="59"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="127"/>
+      <c r="B26" s="78" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="119"/>
-      <c r="B23" s="81" t="s">
+      <c r="C26" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="11">
+        <v>42669</v>
+      </c>
+      <c r="E26" s="122"/>
+      <c r="F26" s="59"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="127"/>
+      <c r="B27" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C27" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="11">
-        <v>42669</v>
-      </c>
-      <c r="E23" s="114"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="119"/>
-      <c r="B24" s="81" t="s">
+      <c r="D27" s="11">
+        <v>42671</v>
+      </c>
+      <c r="E27" s="122"/>
+      <c r="F27" s="59"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="127"/>
+      <c r="B28" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C28" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="11">
+        <v>42671</v>
+      </c>
+      <c r="E28" s="122"/>
+      <c r="F28" s="59"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="127"/>
+      <c r="B29" s="78" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="11">
-        <v>42669</v>
-      </c>
-      <c r="E24" s="114"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="119"/>
-      <c r="B25" s="81" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="11">
-        <v>42671</v>
-      </c>
-      <c r="E25" s="114"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="119"/>
-      <c r="B26" s="81" t="s">
-        <v>128</v>
-      </c>
-      <c r="C26" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D26" s="11">
-        <v>42671</v>
-      </c>
-      <c r="E26" s="114"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="119"/>
-      <c r="B27" s="81" t="s">
-        <v>129</v>
-      </c>
-      <c r="C27" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="11">
+      <c r="D29" s="11">
         <v>42672</v>
       </c>
-      <c r="E27" s="114"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="119"/>
-      <c r="B28" s="81" t="s">
+      <c r="E29" s="122"/>
+      <c r="F29" s="59"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
+      <c r="B30" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="11">
+        <v>42675</v>
+      </c>
+      <c r="E30" s="122"/>
+      <c r="F30" s="59"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="127"/>
+      <c r="B31" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C31" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="11">
-        <v>42675</v>
-      </c>
-      <c r="E28" s="114"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="119"/>
-      <c r="B29" s="81" t="s">
+      <c r="D31" s="11">
+        <v>42674</v>
+      </c>
+      <c r="E31" s="122"/>
+      <c r="F31" s="59"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="127"/>
+      <c r="B32" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C32" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D29" s="11">
-        <v>42674</v>
-      </c>
-      <c r="E29" s="114"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="119"/>
-      <c r="B30" s="81" t="s">
+      <c r="E32" s="122"/>
+      <c r="F32" s="59"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="127"/>
+      <c r="B33" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="82" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="114"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="119"/>
-      <c r="B31" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="D31" s="11">
+      <c r="D33" s="11">
         <v>42676</v>
       </c>
-      <c r="E31" s="114"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="120"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="115"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="59"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="128"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E22:E32"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="E24:E34"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="A15:A34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2197,10 +2296,10 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="132" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2221,8 +2320,8 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="133"/>
       <c r="C3" s="55" t="s">
         <v>40</v>
       </c>
@@ -2239,8 +2338,8 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="130"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="55" t="s">
         <v>16</v>
       </c>
@@ -2257,8 +2356,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="126"/>
+      <c r="A5" s="130"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -2269,8 +2368,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="124" t="s">
+      <c r="A6" s="130"/>
+      <c r="B6" s="132" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -2291,8 +2390,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="126"/>
+      <c r="A7" s="130"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -2303,8 +2402,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="124" t="s">
+      <c r="A8" s="130"/>
+      <c r="B8" s="132" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -2325,8 +2424,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="126"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="134"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -2337,8 +2436,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="124" t="s">
+      <c r="A10" s="130"/>
+      <c r="B10" s="132" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -2359,8 +2458,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2371,21 +2470,21 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="124" t="s">
+      <c r="A12" s="130"/>
+      <c r="B12" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="54" t="s">
         <v>58</v>
-      </c>
-      <c r="C12" s="54" t="s">
-        <v>59</v>
       </c>
       <c r="D12" s="62">
         <v>42661</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -2393,8 +2492,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="126"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -2405,18 +2504,18 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="54" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" s="54" t="s">
-        <v>66</v>
       </c>
       <c r="D14" s="62">
         <v>42668</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="19"/>
@@ -2425,18 +2524,18 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D15" s="11">
         <v>42669</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F15" s="72"/>
       <c r="G15" s="19"/>
@@ -2445,18 +2544,18 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="11">
         <v>42669</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F16" s="72"/>
       <c r="G16" s="19"/>
@@ -2465,21 +2564,21 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="130"/>
       <c r="B17" s="67" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" s="11">
         <v>42671</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
@@ -2487,21 +2586,21 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="130"/>
       <c r="B18" s="67" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D18" s="11">
         <v>42671</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F18" s="72" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
@@ -2509,18 +2608,18 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="67" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D19" s="11">
         <v>42672</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="19"/>
@@ -2529,18 +2628,18 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>146</v>
+      <c r="A20" s="130"/>
+      <c r="B20" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="D20" s="11">
         <v>42675</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="19"/>
@@ -2549,18 +2648,18 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="82" t="s">
-        <v>149</v>
+      <c r="A21" s="130"/>
+      <c r="B21" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="79" t="s">
+        <v>146</v>
       </c>
       <c r="D21" s="11">
         <v>42674</v>
       </c>
-      <c r="E21" s="83" t="s">
-        <v>147</v>
+      <c r="E21" s="80" t="s">
+        <v>144</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="19"/>
@@ -2569,63 +2668,63 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>146</v>
+      <c r="A22" s="130"/>
+      <c r="B22" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>143</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="83" t="s">
-        <v>150</v>
-      </c>
-      <c r="F22" s="84"/>
+        <v>149</v>
+      </c>
+      <c r="E22" s="80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="81"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="87" t="s">
-        <v>154</v>
+      <c r="A23" s="130"/>
+      <c r="B23" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="84" t="s">
+        <v>151</v>
       </c>
       <c r="D23" s="11">
         <v>42676</v>
       </c>
-      <c r="E23" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="84"/>
+      <c r="E23" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="81"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="123"/>
-      <c r="B25" s="79"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="85"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="61"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2682,10 +2781,10 @@
   <sheetPr>
     <tabColor rgb="FF0FAAAF"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2722,22 +2821,22 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="146" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="137">
+      <c r="D2" s="141">
         <v>42486</v>
       </c>
-      <c r="E2" s="124" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="129" t="s">
+      <c r="E2" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="144" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="25"/>
@@ -2746,63 +2845,63 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="139"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="130"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="145"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="102" t="s">
+      <c r="A4" s="143"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="99" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="11">
         <v>42620</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="100"/>
+      <c r="F4" s="97"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="105"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="102"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
-      <c r="B6" s="127" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="138" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="100">
+        <v>42745</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="104" t="s">
         <v>168</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="103">
-        <v>42745</v>
-      </c>
-      <c r="E6" s="101" t="s">
-        <v>171</v>
-      </c>
-      <c r="F6" s="107" t="s">
-        <v>172</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
@@ -2810,22 +2909,22 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
-      <c r="B7" s="131"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="104"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="105"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="102"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="139"/>
-      <c r="B8" s="128"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="140"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="106"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32"/>
       <c r="G8" s="26"/>
@@ -2834,20 +2933,20 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="139"/>
-      <c r="B9" s="131" t="s">
+      <c r="A9" s="143"/>
+      <c r="B9" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="104">
+      <c r="D9" s="101">
         <v>42569</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="95" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="19"/>
@@ -2856,8 +2955,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
-      <c r="B10" s="131"/>
+      <c r="A10" s="143"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2874,8 +2973,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="139"/>
-      <c r="B11" s="131"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="139"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2892,8 +2991,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="139"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="143"/>
+      <c r="B12" s="140"/>
       <c r="C12" s="20"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -2904,8 +3003,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="139"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="143"/>
+      <c r="B13" s="138" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2926,8 +3025,8 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="139"/>
-      <c r="B14" s="131"/>
+      <c r="A14" s="143"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
@@ -2944,8 +3043,8 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
-      <c r="B15" s="131"/>
+      <c r="A15" s="143"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -2960,16 +3059,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="139"/>
-      <c r="B16" s="128"/>
+      <c r="A16" s="143"/>
+      <c r="B16" s="140"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="139"/>
-      <c r="B17" s="127" t="s">
+      <c r="A17" s="143"/>
+      <c r="B17" s="138" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -2986,17 +3085,17 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="139"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="143"/>
+      <c r="B18" s="140"/>
       <c r="C18" s="3"/>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="139"/>
-      <c r="B19" s="127" t="s">
-        <v>63</v>
+      <c r="A19" s="143"/>
+      <c r="B19" s="138" t="s">
+        <v>62</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>20</v>
@@ -3005,37 +3104,37 @@
         <v>42643</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F19" s="15" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="139"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="112" t="s">
-        <v>177</v>
+      <c r="A20" s="143"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="109" t="s">
+        <v>173</v>
       </c>
       <c r="D20" s="12">
         <v>42774</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="111"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="108" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="139"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="143"/>
+      <c r="B21" s="140"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="139"/>
-      <c r="B22" s="127" t="s">
+      <c r="A22" s="143"/>
+      <c r="B22" s="138" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="50" t="s">
@@ -3048,133 +3147,197 @@
         <v>56</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="139"/>
-      <c r="B23" s="131"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="139"/>
       <c r="C23" s="51" t="s">
         <v>55</v>
       </c>
       <c r="D23" s="12">
         <v>42656</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>57</v>
-      </c>
+      <c r="E23" s="7"/>
       <c r="F23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="139"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="143"/>
+      <c r="B24" s="140"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
       <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="139"/>
-      <c r="B25" s="127" t="s">
-        <v>68</v>
+      <c r="A25" s="143"/>
+      <c r="B25" s="138" t="s">
+        <v>177</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D25" s="49">
         <v>42670</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="139"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="35"/>
+      <c r="A26" s="143"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="111" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="12">
+        <v>42775</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="110"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="139"/>
-      <c r="B27" s="134" t="s">
+      <c r="A27" s="143"/>
+      <c r="B27" s="140"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="35"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="143"/>
+      <c r="B28" s="135" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="89">
+        <v>42706</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="C27" s="91" t="s">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="143"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="D29" s="106">
+        <v>42745</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="107" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="143"/>
+      <c r="B30" s="137"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="35"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="143"/>
+      <c r="B31" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="92">
-        <v>42706</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="58" t="s">
+      <c r="C31" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="92">
+        <v>42720</v>
+      </c>
+      <c r="E31" s="63" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="139"/>
-      <c r="B28" s="135"/>
-      <c r="C28" s="108" t="s">
-        <v>174</v>
-      </c>
-      <c r="D28" s="109">
-        <v>42745</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="110" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="139"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="139"/>
-      <c r="B30" s="134" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="95">
-        <v>42720</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="F30" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="139"/>
-      <c r="B31" s="136"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="97"/>
+      <c r="F31" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="143"/>
+      <c r="B32" s="137"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="143"/>
+      <c r="B33" s="135" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="117">
+        <v>42755</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="143"/>
+      <c r="B34" s="137"/>
+      <c r="C34" s="118"/>
+      <c r="D34" s="118"/>
+      <c r="E34" s="118"/>
+      <c r="F34" s="119"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="143"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="58"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="143"/>
+      <c r="B36" s="137"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="119"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="143"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="58"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="143"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="118"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="118"/>
+      <c r="F38" s="119"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="B30:B31"/>
+  <mergeCells count="18">
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="F2:F3"/>
@@ -3184,6 +3347,15 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3205,541 +3377,606 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="159" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="160" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="161"/>
+      <c r="N1" s="162"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="148" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="150"/>
+      <c r="C2" s="136" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="149"/>
+      <c r="N2" s="150"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="165"/>
+      <c r="C3" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="164"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="163" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" s="164"/>
+      <c r="N3" s="165"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="148" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="150"/>
+      <c r="C4" s="148" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="149"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="149"/>
+      <c r="N4" s="150"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="148" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="150"/>
+      <c r="C5" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="M5" s="149"/>
+      <c r="N5" s="150"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="148" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="150"/>
+      <c r="C6" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="150"/>
+      <c r="L6" s="148" t="s">
+        <v>101</v>
+      </c>
+      <c r="M6" s="149"/>
+      <c r="N6" s="150"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="150"/>
+      <c r="C7" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="146" t="s">
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="149"/>
+      <c r="N7" s="150"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="149" t="s">
+      <c r="B8" s="150"/>
+      <c r="C8" s="148" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="150"/>
+      <c r="L8" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="149"/>
+      <c r="N8" s="150"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="148" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="150"/>
+      <c r="C9" s="148" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149"/>
+      <c r="K9" s="150"/>
+      <c r="L9" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="149"/>
+      <c r="N9" s="150"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="148" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="150"/>
+      <c r="C10" s="148" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="150"/>
+      <c r="L10" s="148" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="149"/>
+      <c r="N10" s="150"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="148" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="150"/>
-      <c r="N1" s="151"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="135" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="141" t="s">
+      <c r="B11" s="150"/>
+      <c r="C11" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="148" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="149"/>
+      <c r="N11" s="150"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="148" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" s="150"/>
+      <c r="C12" s="148" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="149"/>
+      <c r="N12" s="150"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="148" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="148" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="148" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="149"/>
+      <c r="N13" s="150"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="148" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="150"/>
+      <c r="C14" s="148" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="150"/>
+      <c r="L14" s="148" t="s">
+        <v>93</v>
+      </c>
+      <c r="M14" s="149"/>
+      <c r="N14" s="150"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="148" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="145"/>
-      <c r="N2" s="142"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="143" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="143" t="s">
-        <v>118</v>
-      </c>
-      <c r="M3" s="152"/>
-      <c r="N3" s="144"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="142"/>
-      <c r="C4" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" s="145"/>
-      <c r="N4" s="142"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="141" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="141" t="s">
+      <c r="B15" s="150"/>
+      <c r="C15" s="148" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="150"/>
+      <c r="L15" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="142"/>
-      <c r="L5" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="M5" s="145"/>
-      <c r="N5" s="142"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="141" t="s">
+      <c r="M15" s="149"/>
+      <c r="N15" s="150"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="141" t="s">
+      <c r="B16" s="150"/>
+      <c r="C16" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="141" t="s">
-        <v>104</v>
-      </c>
-      <c r="M6" s="145"/>
-      <c r="N6" s="142"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="141" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="142"/>
-      <c r="L7" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="M7" s="145"/>
-      <c r="N7" s="142"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="141" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="145"/>
-      <c r="N8" s="142"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="141" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="141" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="141" t="s">
-        <v>97</v>
-      </c>
-      <c r="M9" s="145"/>
-      <c r="N9" s="142"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="141" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="145"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="141" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="145"/>
-      <c r="N10" s="142"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="141" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="141" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="145"/>
-      <c r="N11" s="142"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="141" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="142"/>
-      <c r="C12" s="141" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="145"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="142"/>
-      <c r="L12" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="M12" s="145"/>
-      <c r="N12" s="142"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="141" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="142"/>
-      <c r="C13" s="141" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="142"/>
-      <c r="L13" s="141" t="s">
-        <v>88</v>
-      </c>
-      <c r="M13" s="145"/>
-      <c r="N13" s="142"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="141" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="142"/>
-      <c r="C14" s="141" t="s">
-        <v>98</v>
-      </c>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="142"/>
-      <c r="L14" s="141" t="s">
-        <v>96</v>
-      </c>
-      <c r="M14" s="145"/>
-      <c r="N14" s="142"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="141" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="141" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="141" t="s">
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="148" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="149"/>
+      <c r="N16" s="150"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="145"/>
-      <c r="N15" s="142"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="141" t="s">
+      <c r="B17" s="150"/>
+      <c r="C17" s="136" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="142"/>
-      <c r="C16" s="141" t="s">
+      <c r="D17" s="157"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="157"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="157"/>
+      <c r="K17" s="158"/>
+      <c r="L17" s="156" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="145"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="141" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" s="145"/>
-      <c r="N16" s="142"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
-        <v>113</v>
-      </c>
-      <c r="B17" s="142"/>
-      <c r="C17" s="135" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="148"/>
-      <c r="L17" s="155" t="s">
-        <v>115</v>
-      </c>
-      <c r="M17" s="145"/>
-      <c r="N17" s="142"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="150"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="148"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="142"/>
+      <c r="A18" s="148"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="136"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="157"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="157"/>
+      <c r="K18" s="158"/>
+      <c r="L18" s="148"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="150"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="142"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="142"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="142"/>
+      <c r="A19" s="148"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="148"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="148"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="150"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="142"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="142"/>
+      <c r="A20" s="148"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="148"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="150"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="142"/>
-      <c r="C21" s="141"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="142"/>
+      <c r="A21" s="148"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="148"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="148"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="150"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="145"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="142"/>
+      <c r="A22" s="148"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="150"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="141"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="142"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="150"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="150"/>
+      <c r="L23" s="148"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="150"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="141"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="141"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="142"/>
+      <c r="A24" s="148"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="148"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="150"/>
+      <c r="L24" s="148"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="150"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="142"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="142"/>
+      <c r="A25" s="148"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="150"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="141"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="142"/>
+      <c r="A26" s="148"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="148"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="150"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="156"/>
-      <c r="B27" s="157"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
-      <c r="L27" s="156"/>
-      <c r="M27" s="158"/>
-      <c r="N27" s="157"/>
+      <c r="A27" s="151"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="154"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="152"/>
+      <c r="N27" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
@@ -3756,71 +3993,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3835,8 +4007,8 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3848,140 +4020,140 @@
       <c r="A1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="159" t="s">
+      <c r="C1" s="167"/>
+      <c r="D1" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="160"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="171"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="161">
+      <c r="B2" s="168">
         <v>42620</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="145" t="s">
+      <c r="C2" s="168"/>
+      <c r="D2" s="149" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="142"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="150"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="168">
         <v>42626</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="145" t="s">
+      <c r="C3" s="168"/>
+      <c r="D3" s="149" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="145"/>
-      <c r="J3" s="142"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="149"/>
+      <c r="G3" s="149"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="149"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="161">
+        <v>70</v>
+      </c>
+      <c r="B4" s="168">
         <v>42674</v>
       </c>
-      <c r="C4" s="161"/>
-      <c r="D4" s="145" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="142"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="149" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="149"/>
+      <c r="H4" s="149"/>
+      <c r="I4" s="149"/>
+      <c r="J4" s="150"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="142"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="168"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="142"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="161"/>
-      <c r="C7" s="161"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="142"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="162"/>
-      <c r="D8" s="158"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="157"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="185">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -707,10 +707,6 @@
     <t>-v1.1</t>
   </si>
   <si>
-    <t>-v1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修复ogg进程的格式问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -723,10 +719,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-v1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修复bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,6 +736,18 @@
   </si>
   <si>
     <t>附属文件  hostlist sshpass.rpm安装包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="172">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,9 +1141,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,6 +1306,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,15 +1360,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1369,9 +1385,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1786,8 +1799,8 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1814,7 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="73" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -1810,114 +1823,114 @@
       <c r="D1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="119" t="s">
         <v>118</v>
       </c>
       <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="120" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="121" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="11">
         <v>42620</v>
       </c>
-      <c r="E2" s="113"/>
+      <c r="E2" s="112"/>
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="70" t="s">
+      <c r="A3" s="127"/>
+      <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="68" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="12">
         <v>42620</v>
       </c>
-      <c r="E3" s="113"/>
+      <c r="E3" s="112"/>
       <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="127"/>
+      <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="12">
         <v>42584</v>
       </c>
-      <c r="E4" s="113"/>
+      <c r="E4" s="112"/>
       <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="70" t="s">
+      <c r="A5" s="127"/>
+      <c r="B5" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="12">
         <v>42605</v>
       </c>
-      <c r="E5" s="113"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="70" t="s">
+      <c r="A6" s="127"/>
+      <c r="B6" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>174</v>
+      <c r="C6" s="68" t="s">
+        <v>183</v>
       </c>
       <c r="D6" s="12">
-        <v>42774</v>
-      </c>
-      <c r="E6" s="113"/>
+        <v>42807</v>
+      </c>
+      <c r="E6" s="112"/>
       <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="70" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="12">
         <v>42656</v>
       </c>
-      <c r="E7" s="113"/>
+      <c r="E7" s="112"/>
       <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>178</v>
+      <c r="A8" s="127"/>
+      <c r="B8" s="69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>182</v>
       </c>
       <c r="D8" s="12">
-        <v>42775</v>
-      </c>
-      <c r="E8" s="113"/>
+        <v>42807</v>
+      </c>
+      <c r="E8" s="112"/>
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="87" t="s">
+      <c r="A9" s="127"/>
+      <c r="B9" s="86" t="s">
         <v>153</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1926,12 +1939,12 @@
       <c r="D9" s="12">
         <v>42745</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="90" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="89" t="s">
         <v>163</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1940,12 +1953,12 @@
       <c r="D10" s="12">
         <v>42720</v>
       </c>
-      <c r="E10" s="113"/>
+      <c r="E10" s="112"/>
       <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="128"/>
+      <c r="B11" s="86" t="s">
         <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1954,13 +1967,13 @@
       <c r="D11" s="12">
         <v>42745</v>
       </c>
-      <c r="E11" s="113"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="115" t="s">
-        <v>180</v>
+      <c r="A12" s="128"/>
+      <c r="B12" s="114" t="s">
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>20</v>
@@ -1968,276 +1981,276 @@
       <c r="D12" s="12">
         <v>42786</v>
       </c>
-      <c r="E12" s="114"/>
+      <c r="E12" s="113"/>
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="115"/>
+      <c r="A13" s="128"/>
+      <c r="B13" s="114"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="114"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="113"/>
+      <c r="E14" s="112"/>
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="126" t="s">
+      <c r="A15" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="13">
         <v>42621</v>
       </c>
-      <c r="E15" s="112"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="130"/>
+      <c r="B16" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="12">
         <v>42572</v>
       </c>
-      <c r="E16" s="113"/>
+      <c r="E16" s="112"/>
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="130"/>
+      <c r="B17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="12">
         <v>42611</v>
       </c>
-      <c r="E17" s="113"/>
+      <c r="E17" s="112"/>
       <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="130"/>
+      <c r="B18" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="68" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="12">
         <v>42636</v>
       </c>
-      <c r="E18" s="113"/>
+      <c r="E18" s="112"/>
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="130"/>
+      <c r="B19" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="12">
         <v>42661</v>
       </c>
-      <c r="E19" s="113"/>
+      <c r="E19" s="112"/>
       <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="69"/>
+      <c r="C20" s="68"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="69"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="113"/>
+      <c r="E21" s="112"/>
       <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="69"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="113"/>
+      <c r="E22" s="112"/>
       <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="69"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="113"/>
+      <c r="E23" s="112"/>
       <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="77" t="s">
+      <c r="A24" s="130"/>
+      <c r="B24" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="67" t="s">
         <v>117</v>
       </c>
       <c r="D24" s="62">
         <v>42668</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="124" t="s">
         <v>119</v>
       </c>
       <c r="F24" s="59"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="130"/>
+      <c r="B25" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>121</v>
       </c>
       <c r="D25" s="11">
         <v>42669</v>
       </c>
-      <c r="E25" s="122"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="130"/>
+      <c r="B26" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="68" t="s">
         <v>124</v>
       </c>
       <c r="D26" s="11">
         <v>42669</v>
       </c>
-      <c r="E26" s="122"/>
+      <c r="E26" s="125"/>
       <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="130"/>
+      <c r="B27" s="77" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="68" t="s">
         <v>124</v>
       </c>
       <c r="D27" s="11">
         <v>42671</v>
       </c>
-      <c r="E27" s="122"/>
+      <c r="E27" s="125"/>
       <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="127"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="68" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="11">
         <v>42671</v>
       </c>
-      <c r="E28" s="122"/>
+      <c r="E28" s="125"/>
       <c r="F28" s="59"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="127"/>
-      <c r="B29" s="78" t="s">
+      <c r="A29" s="130"/>
+      <c r="B29" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>127</v>
       </c>
       <c r="D29" s="11">
         <v>42672</v>
       </c>
-      <c r="E29" s="122"/>
+      <c r="E29" s="125"/>
       <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="127"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="130"/>
+      <c r="B30" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="78" t="s">
         <v>143</v>
       </c>
       <c r="D30" s="11">
         <v>42675</v>
       </c>
-      <c r="E30" s="122"/>
+      <c r="E30" s="125"/>
       <c r="F30" s="59"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="127"/>
-      <c r="B31" s="78" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="78" t="s">
         <v>146</v>
       </c>
       <c r="D31" s="11">
         <v>42674</v>
       </c>
-      <c r="E31" s="122"/>
+      <c r="E31" s="125"/>
       <c r="F31" s="59"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="127"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="130"/>
+      <c r="B32" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="78" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="122"/>
+      <c r="E32" s="125"/>
       <c r="F32" s="59"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="127"/>
-      <c r="B33" s="78" t="s">
+      <c r="A33" s="130"/>
+      <c r="B33" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="78" t="s">
         <v>151</v>
       </c>
       <c r="D33" s="11">
         <v>42676</v>
       </c>
-      <c r="E33" s="122"/>
+      <c r="E33" s="125"/>
       <c r="F33" s="59"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="128"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="73"/>
+      <c r="A34" s="131"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="123"/>
+      <c r="E34" s="126"/>
       <c r="F34" s="59"/>
     </row>
   </sheetData>
@@ -2296,10 +2309,10 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="135" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2320,8 +2333,8 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="130"/>
-      <c r="B3" s="133"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="136"/>
       <c r="C3" s="55" t="s">
         <v>40</v>
       </c>
@@ -2338,8 +2351,8 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="133"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="55" t="s">
         <v>16</v>
       </c>
@@ -2356,8 +2369,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="134"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -2368,8 +2381,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="132" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="135" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -2390,8 +2403,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="133"/>
+      <c r="B7" s="137"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -2402,8 +2415,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="132" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="135" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -2424,8 +2437,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="133"/>
+      <c r="B9" s="137"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -2436,8 +2449,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="132" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="135" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -2458,8 +2471,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="133"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2470,8 +2483,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="132" t="s">
+      <c r="A12" s="133"/>
+      <c r="B12" s="135" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -2492,8 +2505,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="134"/>
+      <c r="A13" s="133"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -2504,8 +2517,8 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="66" t="s">
+      <c r="A14" s="133"/>
+      <c r="B14" s="65" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="54" t="s">
@@ -2524,60 +2537,60 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="67" t="s">
+      <c r="A15" s="133"/>
+      <c r="B15" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="68" t="s">
         <v>121</v>
       </c>
       <c r="D15" s="11">
         <v>42669</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="72"/>
+      <c r="F15" s="71"/>
       <c r="G15" s="19"/>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="67" t="s">
+      <c r="A16" s="133"/>
+      <c r="B16" s="66" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="68" t="s">
         <v>124</v>
       </c>
       <c r="D16" s="11">
         <v>42669</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="72"/>
+      <c r="F16" s="71"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
-      <c r="B17" s="67" t="s">
+      <c r="A17" s="133"/>
+      <c r="B17" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="68" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="11">
         <v>42671</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="F17" s="72" t="s">
+      <c r="F17" s="71" t="s">
         <v>138</v>
       </c>
       <c r="G17" s="19"/>
@@ -2586,20 +2599,20 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="133"/>
+      <c r="B18" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="68" t="s">
         <v>117</v>
       </c>
       <c r="D18" s="11">
         <v>42671</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="72" t="s">
+      <c r="F18" s="71" t="s">
         <v>139</v>
       </c>
       <c r="G18" s="19"/>
@@ -2608,11 +2621,11 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="67" t="s">
+      <c r="A19" s="133"/>
+      <c r="B19" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="68" t="s">
         <v>127</v>
       </c>
       <c r="D19" s="11">
@@ -2628,11 +2641,11 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="133"/>
+      <c r="B20" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="79" t="s">
+      <c r="C20" s="78" t="s">
         <v>143</v>
       </c>
       <c r="D20" s="11">
@@ -2648,17 +2661,17 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="133"/>
+      <c r="B21" s="77" t="s">
         <v>145</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="78" t="s">
         <v>146</v>
       </c>
       <c r="D21" s="11">
         <v>42674</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="79" t="s">
         <v>144</v>
       </c>
       <c r="F21" s="33"/>
@@ -2668,63 +2681,63 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="78" t="s">
+      <c r="A22" s="133"/>
+      <c r="B22" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>143</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="81"/>
+      <c r="F22" s="80"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
-      <c r="B23" s="83" t="s">
+      <c r="A23" s="133"/>
+      <c r="B23" s="82" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="84" t="s">
+      <c r="C23" s="83" t="s">
         <v>151</v>
       </c>
       <c r="D23" s="11">
         <v>42676</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="81"/>
+      <c r="F23" s="80"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
       <c r="D24" s="11"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="131"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="75"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
-      <c r="E25" s="82"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="61"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
@@ -2781,10 +2794,10 @@
   <sheetPr>
     <tabColor rgb="FF0FAAAF"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2821,22 +2834,22 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="146" t="s">
+      <c r="C2" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="141">
+      <c r="D2" s="145">
         <v>42486</v>
       </c>
-      <c r="E2" s="132" t="s">
+      <c r="E2" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="144" t="s">
+      <c r="F2" s="147" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="25"/>
@@ -2845,62 +2858,62 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="143"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="145"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="148"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="143"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="99" t="s">
+      <c r="A4" s="138"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="98" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="11">
         <v>42620</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="97"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="143"/>
-      <c r="B5" s="139"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="102"/>
+      <c r="A5" s="138"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="143"/>
-      <c r="B6" s="138" t="s">
+      <c r="A6" s="138"/>
+      <c r="B6" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="100">
+      <c r="D6" s="99">
         <v>42745</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="103" t="s">
         <v>168</v>
       </c>
       <c r="G6" s="26"/>
@@ -2909,22 +2922,22 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="143"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="102"/>
+      <c r="A7" s="138"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="101"/>
       <c r="G7" s="26"/>
       <c r="H7" s="26"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="143"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="138"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="103"/>
+      <c r="D8" s="102"/>
       <c r="E8" s="31"/>
       <c r="F8" s="32"/>
       <c r="G8" s="26"/>
@@ -2933,20 +2946,20 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="143"/>
-      <c r="B9" s="139" t="s">
+      <c r="A9" s="138"/>
+      <c r="B9" s="143" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="101">
+      <c r="D9" s="100">
         <v>42569</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="95" t="s">
+      <c r="F9" s="94" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="19"/>
@@ -2955,8 +2968,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="143"/>
-      <c r="B10" s="139"/>
+      <c r="A10" s="138"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2973,8 +2986,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="143"/>
-      <c r="B11" s="139"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -2991,8 +3004,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="143"/>
-      <c r="B12" s="140"/>
+      <c r="A12" s="138"/>
+      <c r="B12" s="144"/>
       <c r="C12" s="20"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -3003,8 +3016,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="143"/>
-      <c r="B13" s="138" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="142" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3025,8 +3038,8 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="143"/>
-      <c r="B14" s="139"/>
+      <c r="A14" s="138"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
@@ -3043,8 +3056,8 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="143"/>
-      <c r="B15" s="139"/>
+      <c r="A15" s="138"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3059,16 +3072,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="143"/>
-      <c r="B16" s="140"/>
+      <c r="A16" s="138"/>
+      <c r="B16" s="144"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="143"/>
-      <c r="B17" s="138" t="s">
+      <c r="A17" s="138"/>
+      <c r="B17" s="142" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3085,16 +3098,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="143"/>
-      <c r="B18" s="140"/>
+      <c r="A18" s="138"/>
+      <c r="B18" s="144"/>
       <c r="C18" s="3"/>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="143"/>
-      <c r="B19" s="138" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="142" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -3111,235 +3124,265 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="143"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="109" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="108" t="s">
         <v>173</v>
       </c>
       <c r="D20" s="12">
         <v>42774</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="108" t="s">
-        <v>175</v>
+      <c r="F20" s="107" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="143"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="12">
+        <v>42807</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="143"/>
-      <c r="B22" s="138" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="144"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="138"/>
+      <c r="B23" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <v>42654</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E23" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F23" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="143"/>
-      <c r="B23" s="139"/>
-      <c r="C23" s="51" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="138"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <v>42656</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="2" t="s">
+      <c r="E24" s="7"/>
+      <c r="F24" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="143"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="35"/>
-    </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="143"/>
-      <c r="B25" s="138" t="s">
+      <c r="A25" s="138"/>
+      <c r="B25" s="144"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="138"/>
+      <c r="B26" s="142" t="s">
+        <v>176</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="49">
+        <v>42670</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="138"/>
+      <c r="B27" s="143"/>
+      <c r="C27" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="12">
+        <v>42775</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="49">
-        <v>42670</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="143"/>
-      <c r="B26" s="139"/>
-      <c r="C26" s="111" t="s">
-        <v>173</v>
-      </c>
-      <c r="D26" s="12">
-        <v>42775</v>
-      </c>
-      <c r="E26" s="7" t="s">
+      <c r="F27" s="109"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="138"/>
+      <c r="B28" s="143"/>
+      <c r="C28" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="12">
+        <v>42807</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="122"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="138"/>
+      <c r="B29" s="144"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="138"/>
+      <c r="B30" s="139" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="87" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="88">
+        <v>42706</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="F30" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="138"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="105">
+        <v>42745</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="138"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="35"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="138"/>
+      <c r="B33" s="139" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="91">
+        <v>42720</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="F33" s="58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="138"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="93"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="138"/>
+      <c r="B35" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="110"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="143"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="35"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="143"/>
-      <c r="B28" s="135" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D28" s="89">
-        <v>42706</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="143"/>
-      <c r="B29" s="136"/>
-      <c r="C29" s="105" t="s">
-        <v>170</v>
-      </c>
-      <c r="D29" s="106">
-        <v>42745</v>
-      </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="107" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="143"/>
-      <c r="B30" s="137"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="35"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="143"/>
-      <c r="B31" s="135" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="92">
-        <v>42720</v>
-      </c>
-      <c r="E31" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="58" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="143"/>
-      <c r="B32" s="137"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="94"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="143"/>
-      <c r="B33" s="135" t="s">
+      <c r="C35" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="116">
+        <v>42755</v>
+      </c>
+      <c r="E35" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="C33" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="117">
-        <v>42755</v>
-      </c>
-      <c r="E33" s="63" t="s">
-        <v>182</v>
-      </c>
-      <c r="F33" s="58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="143"/>
-      <c r="B34" s="137"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
-      <c r="E34" s="118"/>
-      <c r="F34" s="119"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="143"/>
-      <c r="B35" s="135"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="58"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="143"/>
-      <c r="B36" s="137"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="119"/>
+      <c r="A36" s="138"/>
+      <c r="B36" s="140"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="118"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="143"/>
-      <c r="B37" s="135"/>
+      <c r="A37" s="138"/>
+      <c r="B37" s="139"/>
       <c r="C37" s="63"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="143"/>
-      <c r="B38" s="137"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="119"/>
+      <c r="A38" s="138"/>
+      <c r="B38" s="140"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="118"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="138"/>
+      <c r="B39" s="139"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="58"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="138"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B9:B12"/>
@@ -3347,15 +3390,13 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A2:A38"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A2:A40"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B23:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3377,538 +3418,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="169" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="159" t="s">
+      <c r="B1" s="169"/>
+      <c r="C1" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-      <c r="F1" s="159"/>
-      <c r="G1" s="159"/>
-      <c r="H1" s="159"/>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="160" t="s">
+      <c r="D1" s="162"/>
+      <c r="E1" s="162"/>
+      <c r="F1" s="162"/>
+      <c r="G1" s="162"/>
+      <c r="H1" s="162"/>
+      <c r="I1" s="162"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="162"/>
+      <c r="L1" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="161"/>
-      <c r="N1" s="162"/>
+      <c r="M1" s="164"/>
+      <c r="N1" s="165"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="136" t="s">
+      <c r="B2" s="153"/>
+      <c r="C2" s="141" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="148" t="s">
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="166" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="163" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="165"/>
-      <c r="L3" s="163" t="s">
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="166" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="164"/>
-      <c r="N3" s="165"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="168"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="151" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="148" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="148" t="s">
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="149"/>
-      <c r="N4" s="150"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="153"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
+      <c r="A5" s="151" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="150"/>
-      <c r="C5" s="148" t="s">
+      <c r="B5" s="153"/>
+      <c r="C5" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="148" t="s">
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="149"/>
-      <c r="N5" s="150"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="153"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="151" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="150"/>
-      <c r="C6" s="148" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="150"/>
-      <c r="L6" s="148" t="s">
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="153"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="151" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="150"/>
-      <c r="C7" s="148" t="s">
+      <c r="B7" s="153"/>
+      <c r="C7" s="151" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="149"/>
-      <c r="K7" s="150"/>
-      <c r="L7" s="148" t="s">
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="153"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="151" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="148" t="s">
+      <c r="B8" s="153"/>
+      <c r="C8" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
-      <c r="K8" s="150"/>
-      <c r="L8" s="148" t="s">
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="153"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="150"/>
-      <c r="C9" s="148" t="s">
+      <c r="B9" s="153"/>
+      <c r="C9" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="150"/>
-      <c r="L9" s="148" t="s">
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152"/>
+      <c r="H9" s="152"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="152"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="151" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
+      <c r="M9" s="152"/>
+      <c r="N9" s="153"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
+      <c r="A10" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="150"/>
-      <c r="C10" s="148" t="s">
+      <c r="B10" s="153"/>
+      <c r="C10" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="150"/>
-      <c r="L10" s="148" t="s">
+      <c r="D10" s="152"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="152"/>
+      <c r="H10" s="152"/>
+      <c r="I10" s="152"/>
+      <c r="J10" s="152"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="151" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="149"/>
-      <c r="N10" s="150"/>
+      <c r="M10" s="152"/>
+      <c r="N10" s="153"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="148" t="s">
+      <c r="A11" s="151" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="150"/>
-      <c r="C11" s="148" t="s">
+      <c r="B11" s="153"/>
+      <c r="C11" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="149"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="149"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="148" t="s">
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="153"/>
+      <c r="L11" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="149"/>
-      <c r="N11" s="150"/>
+      <c r="M11" s="152"/>
+      <c r="N11" s="153"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="148" t="s">
+      <c r="B12" s="153"/>
+      <c r="C12" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="149"/>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="148" t="s">
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="152"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="149"/>
-      <c r="N12" s="150"/>
+      <c r="M12" s="152"/>
+      <c r="N12" s="153"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="150"/>
-      <c r="C13" s="148" t="s">
+      <c r="B13" s="153"/>
+      <c r="C13" s="151" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="149"/>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="149"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="150"/>
-      <c r="L13" s="148" t="s">
+      <c r="D13" s="152"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="152"/>
+      <c r="H13" s="152"/>
+      <c r="I13" s="152"/>
+      <c r="J13" s="152"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="151" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="149"/>
-      <c r="N13" s="150"/>
+      <c r="M13" s="152"/>
+      <c r="N13" s="153"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="150"/>
-      <c r="C14" s="148" t="s">
+      <c r="B14" s="153"/>
+      <c r="C14" s="151" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="149"/>
-      <c r="J14" s="149"/>
-      <c r="K14" s="150"/>
-      <c r="L14" s="148" t="s">
+      <c r="D14" s="152"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="151" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="149"/>
-      <c r="N14" s="150"/>
+      <c r="M14" s="152"/>
+      <c r="N14" s="153"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="151" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="148" t="s">
+      <c r="B15" s="153"/>
+      <c r="C15" s="151" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="148" t="s">
+      <c r="D15" s="152"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="149"/>
-      <c r="N15" s="150"/>
+      <c r="M15" s="152"/>
+      <c r="N15" s="153"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="148" t="s">
+      <c r="A16" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="148" t="s">
+      <c r="B16" s="153"/>
+      <c r="C16" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="149"/>
-      <c r="F16" s="149"/>
-      <c r="G16" s="149"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="150"/>
-      <c r="L16" s="148" t="s">
+      <c r="D16" s="152"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="149"/>
-      <c r="N16" s="150"/>
+      <c r="M16" s="152"/>
+      <c r="N16" s="153"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="148" t="s">
+      <c r="A17" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="136" t="s">
+      <c r="B17" s="153"/>
+      <c r="C17" s="141" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="157"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="157"/>
-      <c r="H17" s="157"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="157"/>
-      <c r="K17" s="158"/>
-      <c r="L17" s="156" t="s">
+      <c r="D17" s="160"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="149"/>
-      <c r="N17" s="150"/>
+      <c r="M17" s="152"/>
+      <c r="N17" s="153"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="148"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="149"/>
-      <c r="N18" s="150"/>
+      <c r="A18" s="151"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="151"/>
+      <c r="M18" s="152"/>
+      <c r="N18" s="153"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="148"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="149"/>
-      <c r="E19" s="149"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="149"/>
-      <c r="H19" s="149"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="150"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="149"/>
-      <c r="N19" s="150"/>
+      <c r="A19" s="151"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="152"/>
+      <c r="N19" s="153"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="148"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="150"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="149"/>
-      <c r="N20" s="150"/>
+      <c r="A20" s="151"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="151"/>
+      <c r="M20" s="152"/>
+      <c r="N20" s="153"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="148"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="149"/>
-      <c r="N21" s="150"/>
+      <c r="A21" s="151"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="152"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="151"/>
+      <c r="M21" s="152"/>
+      <c r="N21" s="153"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="148"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="148"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="149"/>
-      <c r="N22" s="150"/>
+      <c r="A22" s="151"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="153"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="148"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="149"/>
-      <c r="E23" s="149"/>
-      <c r="F23" s="149"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="149"/>
-      <c r="I23" s="149"/>
-      <c r="J23" s="149"/>
-      <c r="K23" s="150"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="149"/>
-      <c r="N23" s="150"/>
+      <c r="A23" s="151"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="151"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
+      <c r="H23" s="152"/>
+      <c r="I23" s="152"/>
+      <c r="J23" s="152"/>
+      <c r="K23" s="153"/>
+      <c r="L23" s="151"/>
+      <c r="M23" s="152"/>
+      <c r="N23" s="153"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="148"/>
-      <c r="B24" s="150"/>
-      <c r="C24" s="148"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="150"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="149"/>
-      <c r="N24" s="150"/>
+      <c r="A24" s="151"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="151"/>
+      <c r="D24" s="152"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="152"/>
+      <c r="H24" s="152"/>
+      <c r="I24" s="152"/>
+      <c r="J24" s="152"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="151"/>
+      <c r="M24" s="152"/>
+      <c r="N24" s="153"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="148"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="149"/>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="149"/>
-      <c r="N25" s="150"/>
+      <c r="A25" s="151"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="151"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="151"/>
+      <c r="M25" s="152"/>
+      <c r="N25" s="153"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="148"/>
-      <c r="D26" s="149"/>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="150"/>
+      <c r="A26" s="151"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="151"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="153"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="151"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="154"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="154"/>
-      <c r="K27" s="155"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="152"/>
-      <c r="N27" s="153"/>
+      <c r="A27" s="154"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
+      <c r="L27" s="154"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="81">
@@ -4007,8 +4048,8 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4020,121 +4061,121 @@
       <c r="A1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="167" t="s">
+      <c r="B1" s="170" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="167"/>
-      <c r="D1" s="170" t="s">
+      <c r="C1" s="170"/>
+      <c r="D1" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="174"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="168">
+      <c r="B2" s="171">
         <v>42620</v>
       </c>
-      <c r="C2" s="168"/>
-      <c r="D2" s="149" t="s">
+      <c r="C2" s="171"/>
+      <c r="D2" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="153"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="171">
         <v>42626</v>
       </c>
-      <c r="C3" s="168"/>
-      <c r="D3" s="149" t="s">
+      <c r="C3" s="171"/>
+      <c r="D3" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="150"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="153"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="168">
+      <c r="B4" s="171">
         <v>42674</v>
       </c>
-      <c r="C4" s="168"/>
-      <c r="D4" s="149" t="s">
+      <c r="C4" s="171"/>
+      <c r="D4" s="152" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="150"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
+      <c r="B6" s="171"/>
+      <c r="C6" s="171"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="168"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
+      <c r="B7" s="171"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="153"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/脚本整理-v1.2.xlsx
+++ b/脚本整理-v1.2.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="脚本统计" sheetId="1" r:id="rId1"/>
     <sheet name="python脚本" sheetId="3" r:id="rId2"/>
     <sheet name="shell脚本" sheetId="2" r:id="rId3"/>
-    <sheet name="python模块记录" sheetId="5" r:id="rId4"/>
-    <sheet name="更新日志" sheetId="4" r:id="rId5"/>
+    <sheet name="python爬虫" sheetId="7" r:id="rId4"/>
+    <sheet name="python模块记录" sheetId="5" r:id="rId5"/>
+    <sheet name="ansible" sheetId="6" r:id="rId6"/>
+    <sheet name="更新日志" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="205">
   <si>
     <t>脚本名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -748,6 +750,92 @@
   </si>
   <si>
     <t>修复bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ansible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python
+爬虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-v1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ansible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql_install.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysq_inatall.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要安装包MySQL-server-5.6.30-1.el6.x86_64.rpm  MySQL-client-5.6.30-1.el6.x86_64.rpm
+以及mysql_install.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baidu_Tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baidu_Tb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">网络爬虫吧的帖子
+抓取内容：1. 帖子标题；2. 帖子作者；3. 帖子回复数
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">创建scrapy项目
+url:http://tieba.baidu.com/f?kw=%E7%BD%91%E7%BB%9C%E7%88%AC%E8%99%AB&amp;ie=utf-8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sina_api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sina_api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从新浪微博的API中获取关注人的信息，并分析关注人的地理位置分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youku_mv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同理优酷全部电影</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1--BeautifulSoup爬取             
+2 --正则爬取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -797,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -959,11 +1047,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1318,6 +1421,36 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1360,7 +1493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1369,9 +1505,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,12 +1512,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,77 +1526,122 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1480,8 +1652,8 @@
   <colors>
     <mruColors>
       <color rgb="FFC3E2E4"/>
+      <color rgb="FF58B5A2"/>
       <color rgb="FF0FAAAF"/>
-      <color rgb="FF58B5A2"/>
       <color rgb="FFEDF5DD"/>
       <color rgb="FFF2F2F2"/>
     </mruColors>
@@ -1797,10 +1969,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1829,7 +2001,7 @@
       <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="137" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="120" t="s">
@@ -1845,7 +2017,7 @@
       <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="127"/>
+      <c r="A3" s="137"/>
       <c r="B3" s="69" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +2031,7 @@
       <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="69" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +2045,7 @@
       <c r="F4" s="59"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
+      <c r="A5" s="137"/>
       <c r="B5" s="69" t="s">
         <v>21</v>
       </c>
@@ -1887,7 +2059,7 @@
       <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="137"/>
       <c r="B6" s="69" t="s">
         <v>63</v>
       </c>
@@ -1901,7 +2073,7 @@
       <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="69" t="s">
         <v>51</v>
       </c>
@@ -1915,7 +2087,7 @@
       <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
+      <c r="A8" s="137"/>
       <c r="B8" s="69" t="s">
         <v>175</v>
       </c>
@@ -1929,7 +2101,7 @@
       <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
+      <c r="A9" s="137"/>
       <c r="B9" s="86" t="s">
         <v>153</v>
       </c>
@@ -1943,7 +2115,7 @@
       <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="128"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="89" t="s">
         <v>163</v>
       </c>
@@ -1957,7 +2129,7 @@
       <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="86" t="s">
         <v>169</v>
       </c>
@@ -1971,7 +2143,7 @@
       <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
+      <c r="A12" s="138"/>
       <c r="B12" s="114" t="s">
         <v>178</v>
       </c>
@@ -1985,14 +2157,14 @@
       <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="114"/>
       <c r="D13" s="12"/>
       <c r="E13" s="113"/>
       <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
+      <c r="A14" s="138"/>
       <c r="B14" s="69"/>
       <c r="C14" s="68"/>
       <c r="D14" s="7"/>
@@ -2000,7 +2172,7 @@
       <c r="F14" s="59"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="139" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="65" t="s">
@@ -2016,7 +2188,7 @@
       <c r="F15" s="59"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
+      <c r="A16" s="140"/>
       <c r="B16" s="66" t="s">
         <v>15</v>
       </c>
@@ -2030,7 +2202,7 @@
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="130"/>
+      <c r="A17" s="140"/>
       <c r="B17" s="66" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2216,7 @@
       <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
+      <c r="A18" s="140"/>
       <c r="B18" s="66" t="s">
         <v>46</v>
       </c>
@@ -2058,7 +2230,7 @@
       <c r="F18" s="59"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
+      <c r="A19" s="140"/>
       <c r="B19" s="66" t="s">
         <v>57</v>
       </c>
@@ -2072,7 +2244,7 @@
       <c r="F19" s="59"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
+      <c r="A20" s="140"/>
       <c r="B20" s="7"/>
       <c r="C20" s="68"/>
       <c r="D20" s="7"/>
@@ -2080,7 +2252,7 @@
       <c r="F20" s="59"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
+      <c r="A21" s="140"/>
       <c r="B21" s="7"/>
       <c r="C21" s="68"/>
       <c r="D21" s="7"/>
@@ -2088,7 +2260,7 @@
       <c r="F21" s="59"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
+      <c r="A22" s="140"/>
       <c r="B22" s="7"/>
       <c r="C22" s="68"/>
       <c r="D22" s="7"/>
@@ -2096,7 +2268,7 @@
       <c r="F22" s="59"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
+      <c r="A23" s="140"/>
       <c r="B23" s="7"/>
       <c r="C23" s="68"/>
       <c r="D23" s="7"/>
@@ -2104,7 +2276,7 @@
       <c r="F23" s="59"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
+      <c r="A24" s="140"/>
       <c r="B24" s="76" t="s">
         <v>116</v>
       </c>
@@ -2114,13 +2286,13 @@
       <c r="D24" s="62">
         <v>42668</v>
       </c>
-      <c r="E24" s="124" t="s">
+      <c r="E24" s="134" t="s">
         <v>119</v>
       </c>
       <c r="F24" s="59"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
+      <c r="A25" s="140"/>
       <c r="B25" s="77" t="s">
         <v>120</v>
       </c>
@@ -2130,11 +2302,11 @@
       <c r="D25" s="11">
         <v>42669</v>
       </c>
-      <c r="E25" s="125"/>
+      <c r="E25" s="135"/>
       <c r="F25" s="59"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
+      <c r="A26" s="140"/>
       <c r="B26" s="77" t="s">
         <v>122</v>
       </c>
@@ -2144,11 +2316,11 @@
       <c r="D26" s="11">
         <v>42669</v>
       </c>
-      <c r="E26" s="125"/>
+      <c r="E26" s="135"/>
       <c r="F26" s="59"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
+      <c r="A27" s="140"/>
       <c r="B27" s="77" t="s">
         <v>123</v>
       </c>
@@ -2158,11 +2330,11 @@
       <c r="D27" s="11">
         <v>42671</v>
       </c>
-      <c r="E27" s="125"/>
+      <c r="E27" s="135"/>
       <c r="F27" s="59"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
+      <c r="A28" s="140"/>
       <c r="B28" s="77" t="s">
         <v>125</v>
       </c>
@@ -2172,11 +2344,11 @@
       <c r="D28" s="11">
         <v>42671</v>
       </c>
-      <c r="E28" s="125"/>
+      <c r="E28" s="135"/>
       <c r="F28" s="59"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
+      <c r="A29" s="140"/>
       <c r="B29" s="77" t="s">
         <v>126</v>
       </c>
@@ -2186,11 +2358,11 @@
       <c r="D29" s="11">
         <v>42672</v>
       </c>
-      <c r="E29" s="125"/>
+      <c r="E29" s="135"/>
       <c r="F29" s="59"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
+      <c r="A30" s="140"/>
       <c r="B30" s="77" t="s">
         <v>142</v>
       </c>
@@ -2200,11 +2372,11 @@
       <c r="D30" s="11">
         <v>42675</v>
       </c>
-      <c r="E30" s="125"/>
+      <c r="E30" s="135"/>
       <c r="F30" s="59"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
+      <c r="A31" s="140"/>
       <c r="B31" s="77" t="s">
         <v>145</v>
       </c>
@@ -2214,11 +2386,11 @@
       <c r="D31" s="11">
         <v>42674</v>
       </c>
-      <c r="E31" s="125"/>
+      <c r="E31" s="135"/>
       <c r="F31" s="59"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
+      <c r="A32" s="140"/>
       <c r="B32" s="77" t="s">
         <v>148</v>
       </c>
@@ -2228,36 +2400,216 @@
       <c r="D32" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E32" s="125"/>
+      <c r="E32" s="135"/>
       <c r="F32" s="59"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="130"/>
+      <c r="A33" s="140"/>
       <c r="B33" s="77" t="s">
         <v>150</v>
       </c>
       <c r="C33" s="78" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="D33" s="11">
         <v>42676</v>
       </c>
-      <c r="E33" s="125"/>
+      <c r="E33" s="135"/>
       <c r="F33" s="59"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="131"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="126"/>
+      <c r="A34" s="140"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="129"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="135"/>
       <c r="F34" s="59"/>
     </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="141"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="59"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C36" s="185" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="126">
+        <v>42811</v>
+      </c>
+      <c r="E36" s="189"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="188"/>
+      <c r="B37" s="131"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="169"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="188"/>
+      <c r="B38" s="131"/>
+      <c r="C38" s="186"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="169"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="188"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="186"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="169"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="188"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="169"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="188"/>
+      <c r="B41" s="130"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="130"/>
+      <c r="E41" s="175"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="185" t="s">
+        <v>187</v>
+      </c>
+      <c r="D42" s="126">
+        <v>42803</v>
+      </c>
+      <c r="E42" s="189"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="140"/>
+      <c r="B43" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="127">
+        <v>42809</v>
+      </c>
+      <c r="E43" s="169"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="140"/>
+      <c r="B44" s="131" t="s">
+        <v>202</v>
+      </c>
+      <c r="C44" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="D44" s="127">
+        <v>42815</v>
+      </c>
+      <c r="E44" s="169"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="140"/>
+      <c r="B45" s="131"/>
+      <c r="C45" s="186"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="169"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="140"/>
+      <c r="B46" s="131"/>
+      <c r="C46" s="186"/>
+      <c r="D46" s="131"/>
+      <c r="E46" s="169"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="140"/>
+      <c r="B47" s="131"/>
+      <c r="C47" s="186"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="169"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="140"/>
+      <c r="B48" s="131"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="169"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="140"/>
+      <c r="B49" s="131"/>
+      <c r="C49" s="186"/>
+      <c r="D49" s="131"/>
+      <c r="E49" s="169"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="140"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="169"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="140"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="186"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="169"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="140"/>
+      <c r="B52" s="131"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="131"/>
+      <c r="E52" s="169"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="140"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="186"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="169"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="140"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="186"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="169"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="141"/>
+      <c r="B55" s="130"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="130"/>
+      <c r="E55" s="175"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E24:E34"/>
+  <mergeCells count="7">
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="E42:E55"/>
+    <mergeCell ref="E24:E35"/>
     <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A34"/>
+    <mergeCell ref="A15:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="E36:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2309,10 +2661,10 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="145" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="54" t="s">
@@ -2333,8 +2685,8 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="133"/>
-      <c r="B3" s="136"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="55" t="s">
         <v>40</v>
       </c>
@@ -2351,8 +2703,8 @@
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="55" t="s">
         <v>16</v>
       </c>
@@ -2369,8 +2721,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="133"/>
-      <c r="B5" s="137"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="60"/>
       <c r="D5" s="60"/>
       <c r="E5" s="60"/>
@@ -2381,8 +2733,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="133"/>
-      <c r="B6" s="135" t="s">
+      <c r="A6" s="143"/>
+      <c r="B6" s="145" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="54" t="s">
@@ -2403,8 +2755,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="133"/>
-      <c r="B7" s="137"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="60"/>
       <c r="D7" s="60"/>
       <c r="E7" s="60"/>
@@ -2415,8 +2767,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="133"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="143"/>
+      <c r="B8" s="145" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="54" t="s">
@@ -2437,8 +2789,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="133"/>
-      <c r="B9" s="137"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
@@ -2449,8 +2801,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="135" t="s">
+      <c r="A10" s="143"/>
+      <c r="B10" s="145" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="54" t="s">
@@ -2471,8 +2823,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="133"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="143"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -2483,8 +2835,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="133"/>
-      <c r="B12" s="135" t="s">
+      <c r="A12" s="143"/>
+      <c r="B12" s="145" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="54" t="s">
@@ -2505,8 +2857,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="133"/>
-      <c r="B13" s="137"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="60"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
@@ -2517,7 +2869,7 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="133"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="65" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2889,7 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="133"/>
+      <c r="A15" s="143"/>
       <c r="B15" s="66" t="s">
         <v>129</v>
       </c>
@@ -2557,7 +2909,7 @@
       <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="133"/>
+      <c r="A16" s="143"/>
       <c r="B16" s="66" t="s">
         <v>131</v>
       </c>
@@ -2577,7 +2929,7 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="133"/>
+      <c r="A17" s="143"/>
       <c r="B17" s="66" t="s">
         <v>133</v>
       </c>
@@ -2599,7 +2951,7 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="133"/>
+      <c r="A18" s="143"/>
       <c r="B18" s="66" t="s">
         <v>135</v>
       </c>
@@ -2621,7 +2973,7 @@
       <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="133"/>
+      <c r="A19" s="143"/>
       <c r="B19" s="66" t="s">
         <v>137</v>
       </c>
@@ -2641,7 +2993,7 @@
       <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="133"/>
+      <c r="A20" s="143"/>
       <c r="B20" s="77" t="s">
         <v>142</v>
       </c>
@@ -2661,7 +3013,7 @@
       <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="133"/>
+      <c r="A21" s="143"/>
       <c r="B21" s="77" t="s">
         <v>145</v>
       </c>
@@ -2681,7 +3033,7 @@
       <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="133"/>
+      <c r="A22" s="143"/>
       <c r="B22" s="77" t="s">
         <v>148</v>
       </c>
@@ -2701,7 +3053,7 @@
       <c r="J22" s="19"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="133"/>
+      <c r="A23" s="143"/>
       <c r="B23" s="82" t="s">
         <v>150</v>
       </c>
@@ -2721,7 +3073,7 @@
       <c r="J23" s="19"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="133"/>
+      <c r="A24" s="143"/>
       <c r="B24" s="82"/>
       <c r="C24" s="83"/>
       <c r="D24" s="11"/>
@@ -2733,7 +3085,7 @@
       <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="134"/>
+      <c r="A25" s="144"/>
       <c r="B25" s="75"/>
       <c r="C25" s="60"/>
       <c r="D25" s="60"/>
@@ -2796,8 +3148,8 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="A1:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2834,22 +3186,22 @@
       <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="142" t="s">
+      <c r="B2" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="145">
+      <c r="D2" s="148">
         <v>42486</v>
       </c>
-      <c r="E2" s="135" t="s">
+      <c r="E2" s="145" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="155" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="25"/>
@@ -2858,20 +3210,20 @@
       <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="148"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="156"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="138"/>
-      <c r="B4" s="143"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="153"/>
       <c r="C4" s="98" t="s">
         <v>8</v>
       </c>
@@ -2888,8 +3240,8 @@
       <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="138"/>
-      <c r="B5" s="143"/>
+      <c r="A5" s="159"/>
+      <c r="B5" s="153"/>
       <c r="C5" s="98"/>
       <c r="D5" s="74"/>
       <c r="E5" s="74"/>
@@ -2900,8 +3252,8 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="138"/>
-      <c r="B6" s="142" t="s">
+      <c r="A6" s="159"/>
+      <c r="B6" s="152" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="97" t="s">
@@ -2922,8 +3274,8 @@
       <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="138"/>
-      <c r="B7" s="143"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="98"/>
       <c r="D7" s="100"/>
       <c r="E7" s="74"/>
@@ -2934,8 +3286,8 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="159"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="3"/>
       <c r="D8" s="102"/>
       <c r="E8" s="31"/>
@@ -2946,8 +3298,8 @@
       <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
-      <c r="B9" s="143" t="s">
+      <c r="A9" s="159"/>
+      <c r="B9" s="153" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="98" t="s">
@@ -2968,8 +3320,8 @@
       <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
-      <c r="B10" s="143"/>
+      <c r="A10" s="159"/>
+      <c r="B10" s="153"/>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
@@ -2986,8 +3338,8 @@
       <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
-      <c r="B11" s="143"/>
+      <c r="A11" s="159"/>
+      <c r="B11" s="153"/>
       <c r="C11" s="9" t="s">
         <v>10</v>
       </c>
@@ -3004,8 +3356,8 @@
       <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
-      <c r="B12" s="144"/>
+      <c r="A12" s="159"/>
+      <c r="B12" s="154"/>
       <c r="C12" s="20"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34"/>
@@ -3016,8 +3368,8 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
-      <c r="B13" s="142" t="s">
+      <c r="A13" s="159"/>
+      <c r="B13" s="152" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -3038,8 +3390,8 @@
       <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
-      <c r="B14" s="143"/>
+      <c r="A14" s="159"/>
+      <c r="B14" s="153"/>
       <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
@@ -3056,8 +3408,8 @@
       <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
-      <c r="B15" s="143"/>
+      <c r="A15" s="159"/>
+      <c r="B15" s="153"/>
       <c r="C15" s="9" t="s">
         <v>16</v>
       </c>
@@ -3072,16 +3424,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="138"/>
-      <c r="B16" s="144"/>
+      <c r="A16" s="159"/>
+      <c r="B16" s="154"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
-      <c r="B17" s="142" t="s">
+      <c r="A17" s="159"/>
+      <c r="B17" s="152" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -3098,16 +3450,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
-      <c r="B18" s="144"/>
+      <c r="A18" s="159"/>
+      <c r="B18" s="154"/>
       <c r="C18" s="3"/>
       <c r="D18" s="36"/>
       <c r="E18" s="10"/>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
-      <c r="B19" s="142" t="s">
+      <c r="A19" s="159"/>
+      <c r="B19" s="152" t="s">
         <v>62</v>
       </c>
       <c r="C19" s="47" t="s">
@@ -3124,8 +3476,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
-      <c r="B20" s="143"/>
+      <c r="A20" s="159"/>
+      <c r="B20" s="153"/>
       <c r="C20" s="108" t="s">
         <v>173</v>
       </c>
@@ -3138,8 +3490,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
-      <c r="B21" s="143"/>
+      <c r="A21" s="159"/>
+      <c r="B21" s="153"/>
       <c r="C21" s="123" t="s">
         <v>70</v>
       </c>
@@ -3152,16 +3504,16 @@
       <c r="F21" s="122"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
-      <c r="B22" s="144"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="154"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
-      <c r="B23" s="142" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="152" t="s">
         <v>52</v>
       </c>
       <c r="C23" s="50" t="s">
@@ -3178,8 +3530,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="138"/>
-      <c r="B24" s="143"/>
+      <c r="A24" s="159"/>
+      <c r="B24" s="153"/>
       <c r="C24" s="51" t="s">
         <v>55</v>
       </c>
@@ -3192,16 +3544,16 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="138"/>
-      <c r="B25" s="144"/>
+      <c r="A25" s="159"/>
+      <c r="B25" s="154"/>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="138"/>
-      <c r="B26" s="142" t="s">
+      <c r="A26" s="159"/>
+      <c r="B26" s="152" t="s">
         <v>176</v>
       </c>
       <c r="C26" s="64" t="s">
@@ -3218,8 +3570,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="138"/>
-      <c r="B27" s="143"/>
+      <c r="A27" s="159"/>
+      <c r="B27" s="153"/>
       <c r="C27" s="110" t="s">
         <v>173</v>
       </c>
@@ -3232,8 +3584,8 @@
       <c r="F27" s="109"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="138"/>
-      <c r="B28" s="143"/>
+      <c r="A28" s="159"/>
+      <c r="B28" s="153"/>
       <c r="C28" s="123" t="s">
         <v>70</v>
       </c>
@@ -3246,16 +3598,16 @@
       <c r="F28" s="122"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="138"/>
-      <c r="B29" s="144"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="154"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="138"/>
-      <c r="B30" s="139" t="s">
+      <c r="A30" s="159"/>
+      <c r="B30" s="150" t="s">
         <v>154</v>
       </c>
       <c r="C30" s="87" t="s">
@@ -3272,8 +3624,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="138"/>
-      <c r="B31" s="141"/>
+      <c r="A31" s="159"/>
+      <c r="B31" s="160"/>
       <c r="C31" s="104" t="s">
         <v>170</v>
       </c>
@@ -3286,16 +3638,16 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="138"/>
-      <c r="B32" s="140"/>
+      <c r="A32" s="159"/>
+      <c r="B32" s="151"/>
       <c r="C32" s="20"/>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
       <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="138"/>
-      <c r="B33" s="139" t="s">
+      <c r="A33" s="159"/>
+      <c r="B33" s="150" t="s">
         <v>162</v>
       </c>
       <c r="C33" s="90" t="s">
@@ -3312,16 +3664,16 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="138"/>
-      <c r="B34" s="140"/>
+      <c r="A34" s="159"/>
+      <c r="B34" s="151"/>
       <c r="C34" s="92"/>
       <c r="D34" s="92"/>
       <c r="E34" s="92"/>
       <c r="F34" s="93"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="138"/>
-      <c r="B35" s="139" t="s">
+      <c r="A35" s="159"/>
+      <c r="B35" s="150" t="s">
         <v>179</v>
       </c>
       <c r="C35" s="115" t="s">
@@ -3338,40 +3690,40 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="138"/>
-      <c r="B36" s="140"/>
+      <c r="A36" s="159"/>
+      <c r="B36" s="151"/>
       <c r="C36" s="117"/>
       <c r="D36" s="117"/>
       <c r="E36" s="117"/>
       <c r="F36" s="118"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="138"/>
-      <c r="B37" s="139"/>
+      <c r="A37" s="159"/>
+      <c r="B37" s="150"/>
       <c r="C37" s="63"/>
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="58"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="138"/>
-      <c r="B38" s="140"/>
+      <c r="A38" s="159"/>
+      <c r="B38" s="151"/>
       <c r="C38" s="117"/>
       <c r="D38" s="117"/>
       <c r="E38" s="117"/>
       <c r="F38" s="118"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="138"/>
-      <c r="B39" s="139"/>
+      <c r="A39" s="159"/>
+      <c r="B39" s="150"/>
       <c r="C39" s="63"/>
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="58"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
-      <c r="B40" s="140"/>
+      <c r="A40" s="159"/>
+      <c r="B40" s="151"/>
       <c r="C40" s="117"/>
       <c r="D40" s="117"/>
       <c r="E40" s="117"/>
@@ -3379,6 +3731,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="E2:E3"/>
@@ -3390,13 +3749,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A2:A40"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B23:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3406,10 +3758,236 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF58B5A2"/>
+  </sheetPr>
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" customWidth="1"/>
+    <col min="5" max="5" width="71.6640625" customWidth="1"/>
+    <col min="6" max="6" width="70.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="148">
+        <v>42803</v>
+      </c>
+      <c r="E2" s="191" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="159"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="156"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="159"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="156"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="159"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="156"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="159"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="159"/>
+      <c r="B7" s="152" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="157" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="148">
+        <v>42809</v>
+      </c>
+      <c r="E7" s="157" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="193"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="159"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="194"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="159"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="159"/>
+      <c r="B10" s="152" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="148">
+        <v>42815</v>
+      </c>
+      <c r="E10" s="157" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="197" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="159"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="196"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="159"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="127"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="101"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="159"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="101"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="159"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="124"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="159"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="159"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="159"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC3E2E4"/>
+  </sheetPr>
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="C23" sqref="C23:K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3418,565 +3996,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="162" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="162"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="162"/>
-      <c r="L1" s="163" t="s">
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="164"/>
-      <c r="N1" s="165"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="172"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="151" t="s">
+      <c r="A2" s="162" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="153"/>
-      <c r="C2" s="141" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="151" t="s">
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="163"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="168"/>
-      <c r="C3" s="166" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="164" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="166" t="s">
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="173"/>
+      <c r="K3" s="165"/>
+      <c r="L3" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="165"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="162" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="151" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="151" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="163"/>
+      <c r="L4" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="M4" s="152"/>
-      <c r="N4" s="153"/>
+      <c r="M4" s="166"/>
+      <c r="N4" s="163"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="151" t="s">
+      <c r="A5" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="151" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="162" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="151" t="s">
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="152"/>
-      <c r="N5" s="153"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="163"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="151" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="151" t="s">
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="163"/>
+      <c r="L6" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="152"/>
-      <c r="N6" s="153"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="163"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="151" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="151" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="M7" s="152"/>
-      <c r="N7" s="153"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="163"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="153"/>
-      <c r="C8" s="151" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="152"/>
-      <c r="G8" s="152"/>
-      <c r="H8" s="152"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="152"/>
-      <c r="K8" s="153"/>
-      <c r="L8" s="151" t="s">
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="152"/>
-      <c r="N8" s="153"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="163"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="151" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="152"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="152"/>
-      <c r="H9" s="152"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="152"/>
-      <c r="K9" s="153"/>
-      <c r="L9" s="151" t="s">
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="152"/>
-      <c r="N9" s="153"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="163"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="153"/>
-      <c r="C10" s="151" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="152"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="152"/>
-      <c r="H10" s="152"/>
-      <c r="I10" s="152"/>
-      <c r="J10" s="152"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="151" t="s">
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="152"/>
-      <c r="N10" s="153"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="163"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="151" t="s">
+      <c r="A11" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="153"/>
-      <c r="C11" s="151" t="s">
+      <c r="B11" s="163"/>
+      <c r="C11" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="151" t="s">
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="162" t="s">
         <v>86</v>
       </c>
-      <c r="M11" s="152"/>
-      <c r="N11" s="153"/>
+      <c r="M11" s="166"/>
+      <c r="N11" s="163"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="162" t="s">
         <v>87</v>
       </c>
-      <c r="B12" s="153"/>
-      <c r="C12" s="151" t="s">
+      <c r="B12" s="163"/>
+      <c r="C12" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="152"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="151" t="s">
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="166"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="M12" s="152"/>
-      <c r="N12" s="153"/>
+      <c r="M12" s="166"/>
+      <c r="N12" s="163"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="162" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="151" t="s">
+      <c r="B13" s="163"/>
+      <c r="C13" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="153"/>
-      <c r="L13" s="151" t="s">
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="166"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="163"/>
+      <c r="L13" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="M13" s="152"/>
-      <c r="N13" s="153"/>
+      <c r="M13" s="166"/>
+      <c r="N13" s="163"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="151" t="s">
+      <c r="A14" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="153"/>
-      <c r="C14" s="151" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="153"/>
-      <c r="L14" s="151" t="s">
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="163"/>
+      <c r="L14" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="152"/>
-      <c r="N14" s="153"/>
+      <c r="M14" s="166"/>
+      <c r="N14" s="163"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="151" t="s">
+      <c r="A15" s="162" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="153"/>
-      <c r="C15" s="151" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="162" t="s">
         <v>97</v>
       </c>
-      <c r="D15" s="152"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="152"/>
-      <c r="H15" s="152"/>
-      <c r="I15" s="152"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="153"/>
-      <c r="L15" s="151" t="s">
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="166"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="152"/>
-      <c r="N15" s="153"/>
+      <c r="M15" s="166"/>
+      <c r="N15" s="163"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="153"/>
-      <c r="C16" s="151" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="152"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="152"/>
-      <c r="H16" s="152"/>
-      <c r="I16" s="152"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="153"/>
-      <c r="L16" s="151" t="s">
+      <c r="D16" s="166"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="162" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="152"/>
-      <c r="N16" s="153"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="163"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="151" t="s">
+      <c r="A17" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="141" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="159" t="s">
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="176" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="152"/>
-      <c r="N17" s="153"/>
+      <c r="M17" s="166"/>
+      <c r="N17" s="163"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="141"/>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="151"/>
-      <c r="M18" s="152"/>
-      <c r="N18" s="153"/>
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="163"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="153"/>
-      <c r="L19" s="151"/>
-      <c r="M19" s="152"/>
-      <c r="N19" s="153"/>
+      <c r="A19" s="162"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="162"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="163"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="153"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="152"/>
-      <c r="N20" s="153"/>
+      <c r="A20" s="162"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="166"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="163"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="151"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="152"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
-      <c r="L21" s="151"/>
-      <c r="M21" s="152"/>
-      <c r="N21" s="153"/>
+      <c r="A21" s="162"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="162"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="163"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="163"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="151"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="152"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
-      <c r="L22" s="151"/>
-      <c r="M22" s="152"/>
-      <c r="N22" s="153"/>
+      <c r="A22" s="162"/>
+      <c r="B22" s="163"/>
+      <c r="C22" s="162"/>
+      <c r="D22" s="166"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="163"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="163"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="151"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="152"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="152"/>
-      <c r="H23" s="152"/>
-      <c r="I23" s="152"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="153"/>
-      <c r="L23" s="151"/>
-      <c r="M23" s="152"/>
-      <c r="N23" s="153"/>
+      <c r="A23" s="162"/>
+      <c r="B23" s="163"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="163"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="163"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="152"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="152"/>
-      <c r="H24" s="152"/>
-      <c r="I24" s="152"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="153"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="152"/>
-      <c r="N24" s="153"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="163"/>
+      <c r="C24" s="162"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="163"/>
+      <c r="L24" s="162"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="163"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="151"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="151"/>
-      <c r="M25" s="152"/>
-      <c r="N25" s="153"/>
+      <c r="A25" s="162"/>
+      <c r="B25" s="163"/>
+      <c r="C25" s="162"/>
+      <c r="D25" s="166"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="163"/>
+      <c r="L25" s="162"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="163"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="151"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="153"/>
+      <c r="A26" s="162"/>
+      <c r="B26" s="163"/>
+      <c r="C26" s="162"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="163"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="163"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="154"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="157"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
-      <c r="L27" s="154"/>
-      <c r="M27" s="155"/>
-      <c r="N27" s="156"/>
+      <c r="A27" s="177"/>
+      <c r="B27" s="178"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="174"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="174"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C15:K15"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="L10:N10"/>
@@ -3993,47 +4588,30 @@
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
-    <mergeCell ref="L24:N24"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L25:N25"/>
-    <mergeCell ref="L26:N26"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4041,7 +4619,155 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.21875" customWidth="1"/>
+    <col min="6" max="6" width="97.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="133" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="157" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="148">
+        <v>42811</v>
+      </c>
+      <c r="E2" s="145" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="155" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="159"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="156"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="159"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="101"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="159"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="126"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="103"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="159"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="159"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="159"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="124"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="159"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="159"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="159"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
@@ -4061,140 +4787,140 @@
       <c r="A1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="184" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="170"/>
-      <c r="D1" s="173" t="s">
+      <c r="C1" s="184"/>
+      <c r="D1" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="174"/>
+      <c r="E1" s="180"/>
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="181"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="171">
+      <c r="B2" s="182">
         <v>42620</v>
       </c>
-      <c r="C2" s="171"/>
-      <c r="D2" s="152" t="s">
+      <c r="C2" s="182"/>
+      <c r="D2" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="153"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="171">
+      <c r="B3" s="182">
         <v>42626</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="152" t="s">
+      <c r="C3" s="182"/>
+      <c r="D3" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="153"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="163"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="171">
+      <c r="B4" s="182">
         <v>42674</v>
       </c>
-      <c r="C4" s="171"/>
-      <c r="D4" s="152" t="s">
+      <c r="C4" s="182"/>
+      <c r="D4" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="152"/>
-      <c r="J4" s="153"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="163"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="153"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="171"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
+      <c r="B6" s="182"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="163"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="153"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="155"/>
-      <c r="E8" s="155"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="155"/>
-      <c r="I8" s="155"/>
-      <c r="J8" s="156"/>
+      <c r="B8" s="183"/>
+      <c r="C8" s="183"/>
+      <c r="D8" s="179"/>
+      <c r="E8" s="179"/>
+      <c r="F8" s="179"/>
+      <c r="G8" s="179"/>
+      <c r="H8" s="179"/>
+      <c r="I8" s="179"/>
+      <c r="J8" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="D6:J6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D7:J7"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
